--- a/examples/OregonNd/model_parsing_diagnostics.OregonNd.xlsx
+++ b/examples/OregonNd/model_parsing_diagnostics.OregonNd.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="508">
   <si>
     <t>label</t>
   </si>
@@ -575,13 +575,13 @@
     <t>dependence</t>
   </si>
   <si>
-    <t>H,TCO2,TH2S,TH4SiO4,TH3PO4,TFe,FeOOH,MnO2,TNdnr,TNdr,TNH4,TMn,SO4,Ca,NdnrPO4,NdrPO4,O2,Age,POC,NO2,NO3,FeS,CH4</t>
+    <t>H,TCO2,TH2S,TH4SiO4,TH3PO4,TFe,FeOOH,MnO2,TNdnr,TNdr,TNH4,TMn,SO4,Ca,NdnrPO4,NdrPO4,O2,Age,POC,NO2,NO3,FeS,CH4,CaCO3</t>
   </si>
   <si>
     <t>H,TCO2,TH2S,TFe,FeOOH,MnO2,SO4,O2,FeS</t>
   </si>
   <si>
-    <t>H,TCO2,TH2S,TFe,FeOOH,MnO2,SO4,NO3,NO2,O2,Age,POC</t>
+    <t>H,TCO2,TH2S,TFe,FeOOH,MnO2,SO4,NO3,NO2,O2,Age,POC,FeS</t>
   </si>
   <si>
     <t>H,TCO2,TH2S,TFe,FeOOH,MnO2,SO4,NO3,NO2,O2,Age,POC,CH4,FeS</t>
@@ -602,10 +602,10 @@
     <t>H,TCO2,TH4SiO4,TH3PO4,TNdr,FeOOH,MnO2,SO4,NdrPO4,NdnrPO4</t>
   </si>
   <si>
-    <t>TCO2,H,Ca</t>
-  </si>
-  <si>
-    <t>TCO2,H,Ca,O2,Age,POC,NO2,NO3,MnO2,FeOOH,SO4,CH4</t>
+    <t>TCO2,H,Ca,CaCO3</t>
+  </si>
+  <si>
+    <t>TCO2,H,Ca,O2,Age,POC,NO2,NO3,MnO2,FeOOH,SO4,CH4,CaCO3</t>
   </si>
   <si>
     <t>TMn,FeOOH,MnO2,TFe,TNdnr,NO3,NO2,O2,Age,POC,TH2S,SurfMn_Ndnr</t>
@@ -635,6 +635,9 @@
     <t>TFe,FeOOH,MnO2,NO3,NO2,O2,Age,POC,FeS,TH2S</t>
   </si>
   <si>
+    <t>TH4SiO4,BSi</t>
+  </si>
+  <si>
     <t>O2,Age,POC,NO2,NO3,MnO2,FeOOH,SO4</t>
   </si>
   <si>
@@ -656,87 +659,87 @@
     <t>type</t>
   </si>
   <si>
+    <t>MnO2ID</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>FeOOHID</t>
+  </si>
+  <si>
+    <t>POCID</t>
+  </si>
+  <si>
+    <t>FeSID</t>
+  </si>
+  <si>
+    <t>FeS2ID</t>
+  </si>
+  <si>
+    <t>CaCO3ID</t>
+  </si>
+  <si>
+    <t>AgeID</t>
+  </si>
+  <si>
+    <t>BSiID</t>
+  </si>
+  <si>
+    <t>NdnrPO4ID</t>
+  </si>
+  <si>
+    <t>NdrPO4ID</t>
+  </si>
+  <si>
+    <t>SurfMn_NdnrID</t>
+  </si>
+  <si>
+    <t>SurfMn_NdrID</t>
+  </si>
+  <si>
+    <t>SurfFe_NdnrID</t>
+  </si>
+  <si>
+    <t>SurfFe_NdrID</t>
+  </si>
+  <si>
+    <t>O2ID</t>
+  </si>
+  <si>
+    <t>NO3ID</t>
+  </si>
+  <si>
     <t>TMnID</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>TFeID</t>
   </si>
   <si>
+    <t>CH4ID</t>
+  </si>
+  <si>
+    <t>NO2ID</t>
+  </si>
+  <si>
+    <t>CaID</t>
+  </si>
+  <si>
+    <t>AlID</t>
+  </si>
+  <si>
     <t>TNH4ID</t>
   </si>
   <si>
+    <t>SO4ID</t>
+  </si>
+  <si>
     <t>TNdnrID</t>
   </si>
   <si>
     <t>TNdrID</t>
   </si>
   <si>
-    <t>MnO2ID</t>
-  </si>
-  <si>
-    <t>FeOOHID</t>
-  </si>
-  <si>
-    <t>POCID</t>
-  </si>
-  <si>
-    <t>FeSID</t>
-  </si>
-  <si>
-    <t>FeS2ID</t>
-  </si>
-  <si>
-    <t>CaCO3ID</t>
-  </si>
-  <si>
-    <t>AgeID</t>
-  </si>
-  <si>
-    <t>BSiID</t>
-  </si>
-  <si>
-    <t>NdnrPO4ID</t>
-  </si>
-  <si>
-    <t>NdrPO4ID</t>
-  </si>
-  <si>
-    <t>SurfMn_NdnrID</t>
-  </si>
-  <si>
-    <t>SurfMn_NdrID</t>
-  </si>
-  <si>
-    <t>SurfFe_NdnrID</t>
-  </si>
-  <si>
-    <t>SurfFe_NdrID</t>
-  </si>
-  <si>
-    <t>O2ID</t>
-  </si>
-  <si>
-    <t>NO3ID</t>
-  </si>
-  <si>
-    <t>CH4ID</t>
-  </si>
-  <si>
-    <t>NO2ID</t>
-  </si>
-  <si>
-    <t>CaID</t>
-  </si>
-  <si>
-    <t>AlID</t>
-  </si>
-  <si>
-    <t>SO4ID</t>
-  </si>
-  <si>
     <t>TH4SiO4ID</t>
   </si>
   <si>
@@ -1517,6 +1520,24 @@
     <t>kFeSH2S</t>
   </si>
   <si>
+    <t>kFeSdis</t>
+  </si>
+  <si>
+    <t>kFeSpre</t>
+  </si>
+  <si>
+    <t>kCaCO3dis0</t>
+  </si>
+  <si>
+    <t>kCaCO3dis1</t>
+  </si>
+  <si>
+    <t>nCaCO3dis</t>
+  </si>
+  <si>
+    <t>kBSi_dis</t>
+  </si>
+  <si>
     <t>DNdMn</t>
   </si>
   <si>
@@ -1527,6 +1548,12 @@
   </si>
   <si>
     <t>RFeOx_Ndnr,RFeOx_Ndr</t>
+  </si>
+  <si>
+    <t>kNdPO4_pre</t>
+  </si>
+  <si>
+    <t>RNdnrPO4_pre,RNdrPO4_pre</t>
   </si>
 </sst>
 </file>
@@ -1949,7 +1976,7 @@
         <v>19</v>
       </c>
       <c r="J2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K2" t="s">
         <v>19</v>
@@ -1985,7 +2012,7 @@
         <v>21</v>
       </c>
       <c r="J3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
@@ -2093,7 +2120,7 @@
         <v>36</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="K6" t="s">
         <v>36</v>
@@ -2165,7 +2192,7 @@
         <v>19</v>
       </c>
       <c r="J8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K8" t="s">
         <v>19</v>
@@ -2201,7 +2228,7 @@
         <v>21</v>
       </c>
       <c r="J9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
         <v>21</v>
@@ -2309,7 +2336,7 @@
         <v>36</v>
       </c>
       <c r="J12">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="K12" t="s">
         <v>36</v>
@@ -2381,7 +2408,7 @@
         <v>19</v>
       </c>
       <c r="J14">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K14" t="s">
         <v>19</v>
@@ -2417,7 +2444,7 @@
         <v>21</v>
       </c>
       <c r="J15">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K15" t="s">
         <v>21</v>
@@ -2525,7 +2552,7 @@
         <v>36</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="K18" t="s">
         <v>36</v>
@@ -2597,7 +2624,7 @@
         <v>21</v>
       </c>
       <c r="J20">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K20" t="s">
         <v>21</v>
@@ -2633,7 +2660,7 @@
         <v>19</v>
       </c>
       <c r="J21">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K21" t="s">
         <v>19</v>
@@ -2669,7 +2696,7 @@
         <v>19</v>
       </c>
       <c r="J22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K22" t="s">
         <v>19</v>
@@ -2777,7 +2804,7 @@
         <v>36</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="K25" t="s">
         <v>36</v>
@@ -2849,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="K27" t="s">
         <v>36</v>
@@ -2885,7 +2912,7 @@
         <v>19</v>
       </c>
       <c r="J28">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K28" t="s">
         <v>19</v>
@@ -2921,7 +2948,7 @@
         <v>19</v>
       </c>
       <c r="J29">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K29" t="s">
         <v>19</v>
@@ -3029,7 +3056,7 @@
         <v>36</v>
       </c>
       <c r="J32">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="K32" t="s">
         <v>36</v>
@@ -3101,7 +3128,7 @@
         <v>36</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="K34" t="s">
         <v>36</v>
@@ -3137,7 +3164,7 @@
         <v>19</v>
       </c>
       <c r="J35">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K35" t="s">
         <v>19</v>
@@ -3173,7 +3200,7 @@
         <v>21</v>
       </c>
       <c r="J36">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K36" t="s">
         <v>21</v>
@@ -3281,7 +3308,7 @@
         <v>36</v>
       </c>
       <c r="J39">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="K39" t="s">
         <v>36</v>
@@ -3389,7 +3416,7 @@
         <v>19</v>
       </c>
       <c r="J42">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K42" t="s">
         <v>19</v>
@@ -3497,7 +3524,7 @@
         <v>21</v>
       </c>
       <c r="J45">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K45" t="s">
         <v>21</v>
@@ -3533,7 +3560,7 @@
         <v>36</v>
       </c>
       <c r="J46">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="K46" t="s">
         <v>36</v>
@@ -3605,7 +3632,7 @@
         <v>21</v>
       </c>
       <c r="J48">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K48" t="s">
         <v>21</v>
@@ -3641,7 +3668,7 @@
         <v>21</v>
       </c>
       <c r="J49">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K49" t="s">
         <v>21</v>
@@ -3677,7 +3704,7 @@
         <v>21</v>
       </c>
       <c r="J50">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K50" t="s">
         <v>21</v>
@@ -3713,7 +3740,7 @@
         <v>21</v>
       </c>
       <c r="J51">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K51" t="s">
         <v>21</v>
@@ -3749,7 +3776,7 @@
         <v>36</v>
       </c>
       <c r="J52">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="K52" t="s">
         <v>36</v>
@@ -3785,7 +3812,7 @@
         <v>21</v>
       </c>
       <c r="J53">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K53" t="s">
         <v>21</v>
@@ -3857,7 +3884,7 @@
         <v>21</v>
       </c>
       <c r="J55">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K55" t="s">
         <v>21</v>
@@ -3893,7 +3920,7 @@
         <v>36</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="K56" t="s">
         <v>36</v>
@@ -3929,7 +3956,7 @@
         <v>19</v>
       </c>
       <c r="J57">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K57" t="s">
         <v>19</v>
@@ -4001,7 +4028,7 @@
         <v>21</v>
       </c>
       <c r="J59">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K59" t="s">
         <v>21</v>
@@ -4037,7 +4064,7 @@
         <v>36</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="K60" t="s">
         <v>36</v>
@@ -4073,7 +4100,7 @@
         <v>19</v>
       </c>
       <c r="J61">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K61" t="s">
         <v>19</v>
@@ -4145,7 +4172,7 @@
         <v>21</v>
       </c>
       <c r="J63">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K63" t="s">
         <v>21</v>
@@ -4181,7 +4208,7 @@
         <v>36</v>
       </c>
       <c r="J64">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="K64" t="s">
         <v>36</v>
@@ -4217,7 +4244,7 @@
         <v>19</v>
       </c>
       <c r="J65">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K65" t="s">
         <v>19</v>
@@ -4289,7 +4316,7 @@
         <v>21</v>
       </c>
       <c r="J67">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K67" t="s">
         <v>21</v>
@@ -4325,7 +4352,7 @@
         <v>36</v>
       </c>
       <c r="J68">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="K68" t="s">
         <v>36</v>
@@ -4361,7 +4388,7 @@
         <v>19</v>
       </c>
       <c r="J69">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K69" t="s">
         <v>19</v>
@@ -4433,7 +4460,7 @@
         <v>21</v>
       </c>
       <c r="J71">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K71" t="s">
         <v>21</v>
@@ -4505,7 +4532,7 @@
         <v>21</v>
       </c>
       <c r="J73">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K73" t="s">
         <v>21</v>
@@ -4577,7 +4604,7 @@
         <v>21</v>
       </c>
       <c r="J75">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K75" t="s">
         <v>21</v>
@@ -4613,7 +4640,7 @@
         <v>19</v>
       </c>
       <c r="J76">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K76" t="s">
         <v>19</v>
@@ -4649,7 +4676,7 @@
         <v>19</v>
       </c>
       <c r="J77">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K77" t="s">
         <v>19</v>
@@ -4685,7 +4712,7 @@
         <v>21</v>
       </c>
       <c r="J78">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K78" t="s">
         <v>21</v>
@@ -4757,7 +4784,7 @@
         <v>21</v>
       </c>
       <c r="J80">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K80" t="s">
         <v>21</v>
@@ -4793,7 +4820,7 @@
         <v>21</v>
       </c>
       <c r="J81">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K81" t="s">
         <v>21</v>
@@ -4865,7 +4892,7 @@
         <v>21</v>
       </c>
       <c r="J83">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K83" t="s">
         <v>21</v>
@@ -4901,7 +4928,7 @@
         <v>36</v>
       </c>
       <c r="J84">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="K84" t="s">
         <v>36</v>
@@ -4937,7 +4964,7 @@
         <v>21</v>
       </c>
       <c r="J85">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K85" t="s">
         <v>21</v>
@@ -4973,7 +5000,7 @@
         <v>21</v>
       </c>
       <c r="J86">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K86" t="s">
         <v>21</v>
@@ -5117,7 +5144,7 @@
         <v>19</v>
       </c>
       <c r="J90">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K90" t="s">
         <v>19</v>
@@ -5153,7 +5180,7 @@
         <v>36</v>
       </c>
       <c r="J91">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="K91" t="s">
         <v>36</v>
@@ -5189,7 +5216,7 @@
         <v>36</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="K92" t="s">
         <v>36</v>
@@ -5225,7 +5252,7 @@
         <v>19</v>
       </c>
       <c r="J93">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K93" t="s">
         <v>19</v>
@@ -5297,7 +5324,7 @@
         <v>19</v>
       </c>
       <c r="J95">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K95" t="s">
         <v>19</v>
@@ -5405,7 +5432,7 @@
         <v>36</v>
       </c>
       <c r="J98">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="K98" t="s">
         <v>36</v>
@@ -5441,7 +5468,7 @@
         <v>19</v>
       </c>
       <c r="J99">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K99" t="s">
         <v>19</v>
@@ -5549,7 +5576,7 @@
         <v>36</v>
       </c>
       <c r="J102">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="K102" t="s">
         <v>36</v>
@@ -5585,7 +5612,7 @@
         <v>19</v>
       </c>
       <c r="J103">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K103" t="s">
         <v>19</v>
@@ -5657,7 +5684,7 @@
         <v>19</v>
       </c>
       <c r="J105">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K105" t="s">
         <v>19</v>
@@ -5693,7 +5720,7 @@
         <v>19</v>
       </c>
       <c r="J106">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K106" t="s">
         <v>19</v>
@@ -5765,7 +5792,7 @@
         <v>36</v>
       </c>
       <c r="J108">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="K108" t="s">
         <v>36</v>
@@ -5837,7 +5864,7 @@
         <v>36</v>
       </c>
       <c r="J110">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="K110" t="s">
         <v>36</v>
@@ -5909,7 +5936,7 @@
         <v>19</v>
       </c>
       <c r="J112">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K112" t="s">
         <v>19</v>
@@ -5981,7 +6008,7 @@
         <v>19</v>
       </c>
       <c r="J114">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K114" t="s">
         <v>19</v>
@@ -6017,7 +6044,7 @@
         <v>21</v>
       </c>
       <c r="J115">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K115" t="s">
         <v>21</v>
@@ -6089,7 +6116,7 @@
         <v>19</v>
       </c>
       <c r="J117">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K117" t="s">
         <v>19</v>
@@ -6161,7 +6188,7 @@
         <v>21</v>
       </c>
       <c r="J119">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K119" t="s">
         <v>21</v>
@@ -6197,7 +6224,7 @@
         <v>19</v>
       </c>
       <c r="J120">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K120" t="s">
         <v>19</v>
@@ -6233,7 +6260,7 @@
         <v>36</v>
       </c>
       <c r="J121">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="K121" t="s">
         <v>36</v>
@@ -6269,7 +6296,7 @@
         <v>19</v>
       </c>
       <c r="J122">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K122" t="s">
         <v>19</v>
@@ -6305,7 +6332,7 @@
         <v>36</v>
       </c>
       <c r="J123">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="K123" t="s">
         <v>36</v>
@@ -6341,7 +6368,7 @@
         <v>36</v>
       </c>
       <c r="J124">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="K124" t="s">
         <v>36</v>
@@ -6377,7 +6404,7 @@
         <v>19</v>
       </c>
       <c r="J125">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K125" t="s">
         <v>19</v>
@@ -6413,7 +6440,7 @@
         <v>36</v>
       </c>
       <c r="J126">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="K126" t="s">
         <v>36</v>
@@ -6449,7 +6476,7 @@
         <v>19</v>
       </c>
       <c r="J127">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K127" t="s">
         <v>19</v>
@@ -6485,7 +6512,7 @@
         <v>19</v>
       </c>
       <c r="J128">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K128" t="s">
         <v>19</v>
@@ -6521,7 +6548,7 @@
         <v>36</v>
       </c>
       <c r="J129">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="K129" t="s">
         <v>36</v>
@@ -6557,7 +6584,7 @@
         <v>19</v>
       </c>
       <c r="J130">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K130" t="s">
         <v>19</v>
@@ -6593,7 +6620,7 @@
         <v>36</v>
       </c>
       <c r="J131">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="K131" t="s">
         <v>36</v>
@@ -6629,7 +6656,7 @@
         <v>36</v>
       </c>
       <c r="J132">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="K132" t="s">
         <v>36</v>
@@ -6665,7 +6692,7 @@
         <v>19</v>
       </c>
       <c r="J133">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K133" t="s">
         <v>19</v>
@@ -6701,7 +6728,7 @@
         <v>36</v>
       </c>
       <c r="J134">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="K134" t="s">
         <v>36</v>
@@ -6737,7 +6764,7 @@
         <v>19</v>
       </c>
       <c r="J135">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K135" t="s">
         <v>19</v>
@@ -6773,7 +6800,7 @@
         <v>36</v>
       </c>
       <c r="J136">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="K136" t="s">
         <v>36</v>
@@ -6845,7 +6872,7 @@
         <v>19</v>
       </c>
       <c r="J138">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K138" t="s">
         <v>19</v>
@@ -6881,7 +6908,7 @@
         <v>36</v>
       </c>
       <c r="J139">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="K139" t="s">
         <v>36</v>
@@ -6953,7 +6980,7 @@
         <v>19</v>
       </c>
       <c r="J141">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K141" t="s">
         <v>19</v>
@@ -11123,7 +11150,7 @@
         <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -11131,7 +11158,7 @@
         <v>105</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -11139,7 +11166,7 @@
         <v>107</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -11147,7 +11174,7 @@
         <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -11155,7 +11182,7 @@
         <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -11163,7 +11190,7 @@
         <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -11171,7 +11198,7 @@
         <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -11179,7 +11206,7 @@
         <v>93</v>
       </c>
       <c r="B31" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -11197,1802 +11224,1802 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" t="s">
         <v>210</v>
-      </c>
-      <c r="B3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B16" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B26" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B27" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B28" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B31" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B33" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B34" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
+        <v>244</v>
+      </c>
+      <c r="B35" t="s">
         <v>243</v>
-      </c>
-      <c r="B35" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B37" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B38" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B39" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B40" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B41" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B42" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B43" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B44" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B45" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B47" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B48" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B49" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B50" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B51" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B52" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B53" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B54" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B55" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B56" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B57" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B58" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B59" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B60" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B61" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B62" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B63" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B64" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B65" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B66" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B67" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B68" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B69" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B70" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B71" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B72" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B73" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B74" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B75" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B76" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B77" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B78" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B79" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B80" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B81" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B82" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B83" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
+        <v>294</v>
+      </c>
+      <c r="B84" t="s">
         <v>293</v>
-      </c>
-      <c r="B84" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B85" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B86" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B87" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B88" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B89" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B90" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B91" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B92" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B93" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B94" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B95" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B96" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B97" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B98" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B99" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B100" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B101" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B102" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B103" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B104" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B105" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B106" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B107" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B108" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B109" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B110" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B111" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B112" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B113" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B114" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B115" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B116" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B117" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B118" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B119" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B120" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B121" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B122" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B123" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B124" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B125" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B126" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B127" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B128" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B129" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B130" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B131" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B132" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B133" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B134" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B135" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B136" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B137" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B138" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B139" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B140" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B141" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B142" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B143" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B144" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B145" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B146" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B147" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B148" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B149" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B150" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B151" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B152" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B153" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B154" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B155" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B156" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B157" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B158" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B159" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B160" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B161" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B162" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B163" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B164" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B165" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B166" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B167" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B168" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B169" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B170" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B171" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B172" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B173" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B174" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B175" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B176" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B177" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B178" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B179" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B180" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B181" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B182" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
+        <v>394</v>
+      </c>
+      <c r="B183" t="s">
         <v>393</v>
-      </c>
-      <c r="B183" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B184" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B185" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B186" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B187" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B188" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B189" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B190" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B191" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B192" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B193" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B194" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B195" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B196" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B197" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B198" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B199" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B200" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B201" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B202" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B203" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B204" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B205" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B206" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B207" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B208" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B209" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
+        <v>422</v>
+      </c>
+      <c r="B210" t="s">
         <v>421</v>
-      </c>
-      <c r="B210" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B211" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B212" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B213" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B214" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B215" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B216" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B217" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
+        <v>431</v>
+      </c>
+      <c r="B218" t="s">
         <v>430</v>
-      </c>
-      <c r="B218" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B219" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B220" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B221" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B222" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B223" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B224" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B225" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -13002,7 +13029,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -13010,10 +13037,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C1" t="s">
         <v>136</v>
@@ -13021,156 +13048,156 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B4" t="s">
         <v>421</v>
       </c>
-      <c r="B4" t="s">
-        <v>420</v>
-      </c>
       <c r="C4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B8" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B10" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B11" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C11" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B12" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C12" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B13" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C13" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B14" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C14" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B15" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C15" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -13178,10 +13205,10 @@
         <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C16" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -13189,21 +13216,21 @@
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C17" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B18" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C18" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -13211,106 +13238,106 @@
         <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C19" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B20" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C20" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>468</v>
+      </c>
+      <c r="B21" t="s">
+        <v>459</v>
+      </c>
+      <c r="C21" t="s">
         <v>467</v>
-      </c>
-      <c r="B21" t="s">
-        <v>458</v>
-      </c>
-      <c r="C21" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B22" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C22" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B23" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C23" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B24" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C24" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B25" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C25" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B26" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C26" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B27" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C27" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B28" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C28" t="s">
         <v>74</v>
@@ -13318,10 +13345,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B29" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C29" t="s">
         <v>75</v>
@@ -13329,10 +13356,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B30" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C30" t="s">
         <v>77</v>
@@ -13340,10 +13367,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B31" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C31" t="s">
         <v>78</v>
@@ -13351,10 +13378,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B32" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C32" t="s">
         <v>79</v>
@@ -13362,10 +13389,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B33" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C33" t="s">
         <v>81</v>
@@ -13373,10 +13400,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B34" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C34" t="s">
         <v>82</v>
@@ -13384,10 +13411,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B35" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C35" t="s">
         <v>83</v>
@@ -13395,10 +13422,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B36" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C36" t="s">
         <v>86</v>
@@ -13406,10 +13433,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B37" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C37" t="s">
         <v>87</v>
@@ -13417,10 +13444,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B38" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C38" t="s">
         <v>88</v>
@@ -13428,10 +13455,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B39" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C39" t="s">
         <v>88</v>
@@ -13439,10 +13466,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B40" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C40" t="s">
         <v>89</v>
@@ -13450,10 +13477,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B41" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C41" t="s">
         <v>90</v>
@@ -13461,10 +13488,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B42" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C42" t="s">
         <v>91</v>
@@ -13472,10 +13499,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B43" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C43" t="s">
         <v>92</v>
@@ -13483,13 +13510,13 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B44" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C44" t="s">
-        <v>496</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -13497,10 +13524,87 @@
         <v>497</v>
       </c>
       <c r="B45" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
         <v>498</v>
+      </c>
+      <c r="B46" t="s">
+        <v>459</v>
+      </c>
+      <c r="C46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>499</v>
+      </c>
+      <c r="B47" t="s">
+        <v>459</v>
+      </c>
+      <c r="C47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>500</v>
+      </c>
+      <c r="B48" t="s">
+        <v>459</v>
+      </c>
+      <c r="C48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>501</v>
+      </c>
+      <c r="B49" t="s">
+        <v>459</v>
+      </c>
+      <c r="C49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>502</v>
+      </c>
+      <c r="B50" t="s">
+        <v>459</v>
+      </c>
+      <c r="C50" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>504</v>
+      </c>
+      <c r="B51" t="s">
+        <v>459</v>
+      </c>
+      <c r="C51" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>506</v>
+      </c>
+      <c r="B52" t="s">
+        <v>459</v>
+      </c>
+      <c r="C52" t="s">
+        <v>507</v>
       </c>
     </row>
   </sheetData>

--- a/examples/OregonNd/model_parsing_diagnostics.OregonNd.xlsx
+++ b/examples/OregonNd/model_parsing_diagnostics.OregonNd.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="544">
   <si>
     <t>label</t>
   </si>
@@ -437,6 +437,54 @@
     <t>NdrPO4</t>
   </si>
   <si>
+    <t>RIllite_pre</t>
+  </si>
+  <si>
+    <t>-2.85</t>
+  </si>
+  <si>
+    <t>-3.15</t>
+  </si>
+  <si>
+    <t>(K)[0.85](Al)[2.85](Si)[3.15]O10(OH)[2]</t>
+  </si>
+  <si>
+    <t>Illite,(K)[0.85](Al)[2.85](Si)[3.15]O10(OH)[2]</t>
+  </si>
+  <si>
+    <t>Illite</t>
+  </si>
+  <si>
+    <t>9.4</t>
+  </si>
+  <si>
+    <t>RBasalt_dis</t>
+  </si>
+  <si>
+    <t>Si(Al)[0.36]O2(OH)[1.08]</t>
+  </si>
+  <si>
+    <t>Basalt,Si(Al)[0.36]O2(OH)[1.08]</t>
+  </si>
+  <si>
+    <t>Basalt</t>
+  </si>
+  <si>
+    <t>-1.08</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>RBasalt_dis_Nd</t>
+  </si>
+  <si>
+    <t>rNdnrSi_lith</t>
+  </si>
+  <si>
+    <t>rNdrSi_lith</t>
+  </si>
+  <si>
     <t>species</t>
   </si>
   <si>
@@ -473,6 +521,12 @@
     <t>SurfFe</t>
   </si>
   <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>(Ndnr)[rNdnrSi_lith](Ndr)[rNdrSi_lith]</t>
+  </si>
+  <si>
     <t>element</t>
   </si>
   <si>
@@ -575,7 +629,7 @@
     <t>dependence</t>
   </si>
   <si>
-    <t>H,TCO2,TH2S,TH4SiO4,TH3PO4,TFe,FeOOH,MnO2,TNdnr,TNdr,TNH4,TMn,SO4,Ca,NdnrPO4,NdrPO4,O2,Age,POC,NO2,NO3,FeS,CH4,CaCO3</t>
+    <t>H,TCO2,TH2S,TH4SiO4,TH3PO4,TFe,FeOOH,MnO2,TNdnr,TNdr,TNH4,TMn,SO4,Al,Ca,O2,Age,POC,NO2,NO3,FeS,CH4,CaCO3,NdnrPO4,NdrPO4,Illite,Basalt</t>
   </si>
   <si>
     <t>H,TCO2,TH2S,TFe,FeOOH,MnO2,SO4,O2,FeS</t>
@@ -587,18 +641,27 @@
     <t>H,TCO2,TH2S,TFe,FeOOH,MnO2,SO4,NO3,NO2,O2,Age,POC,CH4,FeS</t>
   </si>
   <si>
-    <t>H,TCO2,TH4SiO4,TH3PO4,TNdnr,FeOOH,MnO2,TMn,TFe,SO4,NdnrPO4,NdrPO4,NO3,NO2,O2,Age,POC,TH2S,SurfMn_Ndnr,SurfFe_Ndnr</t>
-  </si>
-  <si>
-    <t>H,TCO2,TH4SiO4,TH3PO4,TNdnr,FeOOH,MnO2,TNdr,SO4,NdnrPO4,NdrPO4,O2,Age,POC,NO2,NO3</t>
+    <t>H,TCO2,TH4SiO4,TH3PO4,TNdnr,FeOOH,MnO2,TMn,TFe,Al,SO4,NO3,NO2,O2,Age,POC,TH2S,Basalt,SurfMn_Ndnr,SurfFe_Ndnr,NdnrPO4,NdrPO4</t>
+  </si>
+  <si>
+    <t>H,TCO2,TH4SiO4,TH3PO4,TNdr,FeOOH,MnO2,TMn,TFe,Al,SO4,NO3,NO2,O2,Age,POC,TH2S,Basalt,SurfMn_Ndr,SurfFe_Ndr,NdrPO4,NdnrPO4</t>
+  </si>
+  <si>
+    <t>H,TH4SiO4,Al,Basalt</t>
+  </si>
+  <si>
+    <t>H,TH4SiO4,Al,BSi,Illite,Basalt</t>
+  </si>
+  <si>
+    <t>H,TH4SiO4,Al,Illite</t>
+  </si>
+  <si>
+    <t>H,TCO2,TH4SiO4,TH3PO4,TNdnr,FeOOH,MnO2,TNdr,SO4,O2,Age,POC,NO2,NO3,NdnrPO4,NdrPO4</t>
   </si>
   <si>
     <t>H,TCO2,TH4SiO4,TH3PO4,TNdnr,FeOOH,MnO2,SO4,NdnrPO4,NdrPO4</t>
   </si>
   <si>
-    <t>H,TCO2,TH4SiO4,TH3PO4,TNdr,FeOOH,MnO2,TMn,TFe,SO4,NdrPO4,NdnrPO4,NO3,NO2,O2,Age,POC,TH2S,SurfMn_Ndr,SurfFe_Ndr</t>
-  </si>
-  <si>
     <t>H,TCO2,TH4SiO4,TH3PO4,TNdr,FeOOH,MnO2,SO4,NdrPO4,NdnrPO4</t>
   </si>
   <si>
@@ -704,6 +767,12 @@
     <t>SurfFe_NdrID</t>
   </si>
   <si>
+    <t>IlliteID</t>
+  </si>
+  <si>
+    <t>BasaltID</t>
+  </si>
+  <si>
     <t>O2ID</t>
   </si>
   <si>
@@ -803,6 +872,12 @@
     <t>AmSurfFe_Ndr</t>
   </si>
   <si>
+    <t>AmIllite</t>
+  </si>
+  <si>
+    <t>AmBasalt</t>
+  </si>
+  <si>
     <t>AmO2</t>
   </si>
   <si>
@@ -995,6 +1070,18 @@
     <t>BcCmSurfFe_Ndr</t>
   </si>
   <si>
+    <t>BcAmIllite</t>
+  </si>
+  <si>
+    <t>BcCmIllite</t>
+  </si>
+  <si>
+    <t>BcAmBasalt</t>
+  </si>
+  <si>
+    <t>BcCmBasalt</t>
+  </si>
+  <si>
     <t>BcAmO2</t>
   </si>
   <si>
@@ -1403,157 +1490,178 @@
     <t>Omega_RBSi_dis</t>
   </si>
   <si>
+    <t>KspBasalt</t>
+  </si>
+  <si>
+    <t>Omega_RBasalt_dis</t>
+  </si>
+  <si>
+    <t>reaction rate</t>
+  </si>
+  <si>
+    <t>S_O2,S_TCO2,S_TNH4,S_TH3PO4,S_NO2,S_NO3,S_TMn,S_TFe,S_SO4,S_TH2S,S_CH4,S_Ca,S_TH4SiO4,S_Al,S_TNdnr,S_TNdr,S_TA,S_TA,S_TA,RO2Mn_ads,RO2Fe_ads,RFeOx_Ndnr,RFeOx_Ndr,RIllite_pre,RBasalt_dis_Nd</t>
+  </si>
+  <si>
+    <t>S_TNH4,S_TA</t>
+  </si>
+  <si>
+    <t>S_TH3PO4,S_TA</t>
+  </si>
+  <si>
+    <t>pwtods</t>
+  </si>
+  <si>
+    <t>S_MnO2,S_FeOOH,S_FeS,S_SurfMn_Ndnr,S_SurfMn_Ndr,S_SurfFe_Ndnr,S_SurfFe_Ndr,S_NdnrPO4,S_NdrPO4,S_Illite</t>
+  </si>
+  <si>
+    <t>S_Al</t>
+  </si>
+  <si>
+    <t>S_TNdnr</t>
+  </si>
+  <si>
+    <t>S_TNdr</t>
+  </si>
+  <si>
+    <t>KO2</t>
+  </si>
+  <si>
+    <t>RO2POC,RNO2POC,RNO3POC,RMnO2POC,RFeOOHPOC,RSO4POC,RCH4POC</t>
+  </si>
+  <si>
+    <t>nu</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>KNO2</t>
+  </si>
+  <si>
+    <t>RNO2POC,RNO3POC,RMnO2POC,RFeOOHPOC,RSO4POC,RCH4POC</t>
+  </si>
+  <si>
+    <t>KNO3</t>
+  </si>
+  <si>
+    <t>RNO3POC,RMnO2POC,RFeOOHPOC,RSO4POC,RCH4POC</t>
+  </si>
+  <si>
+    <t>KMnO2</t>
+  </si>
+  <si>
+    <t>RMnO2POC,RFeOOHPOC,RSO4POC,RCH4POC</t>
+  </si>
+  <si>
+    <t>KFeOOH</t>
+  </si>
+  <si>
+    <t>RFeOOHPOC,RSO4POC,RCH4POC</t>
+  </si>
+  <si>
+    <t>KSO4</t>
+  </si>
+  <si>
+    <t>RSO4POC,RCH4POC</t>
+  </si>
+  <si>
+    <t>kO2NO2</t>
+  </si>
+  <si>
+    <t>kO2NH4</t>
+  </si>
+  <si>
+    <t>kO2Mn</t>
+  </si>
+  <si>
+    <t>kO2Mn_ads</t>
+  </si>
+  <si>
+    <t>kO2Fe</t>
+  </si>
+  <si>
+    <t>kO2Fe_ads</t>
+  </si>
+  <si>
+    <t>kO2H2S</t>
+  </si>
+  <si>
+    <t>kO2FeS</t>
+  </si>
+  <si>
+    <t>kO2CH4</t>
+  </si>
+  <si>
+    <t>kNO2NH4</t>
+  </si>
+  <si>
+    <t>kAOM</t>
+  </si>
+  <si>
+    <t>KAOM</t>
+  </si>
+  <si>
+    <t>kMnO2Fe</t>
+  </si>
+  <si>
+    <t>kMnO2H2S</t>
+  </si>
+  <si>
+    <t>kFeOOHH2S</t>
+  </si>
+  <si>
+    <t>kFeSH2S</t>
+  </si>
+  <si>
+    <t>kFeSdis</t>
+  </si>
+  <si>
+    <t>kFeSpre</t>
+  </si>
+  <si>
+    <t>kCaCO3dis0</t>
+  </si>
+  <si>
+    <t>kCaCO3dis1</t>
+  </si>
+  <si>
+    <t>nCaCO3dis</t>
+  </si>
+  <si>
+    <t>kBSi_dis</t>
+  </si>
+  <si>
+    <t>DNdMn</t>
+  </si>
+  <si>
+    <t>RMnOx_Ndnr,RMnOx_Ndr</t>
+  </si>
+  <si>
+    <t>DNdFe</t>
+  </si>
+  <si>
+    <t>RFeOx_Ndnr,RFeOx_Ndr</t>
+  </si>
+  <si>
+    <t>kNdPO4_pre</t>
+  </si>
+  <si>
+    <t>RNdnrPO4_pre,RNdrPO4_pre</t>
+  </si>
+  <si>
     <t>KspNdPO4</t>
   </si>
   <si>
-    <t>Omega_RNdnrPO4_pre,Omega_RNdrPO4_pre</t>
-  </si>
-  <si>
-    <t>reaction rate</t>
-  </si>
-  <si>
-    <t>S_O2,S_TCO2,S_TNH4,S_TH3PO4,S_NO2,S_NO3,S_TMn,S_TFe,S_SO4,S_TH2S,S_CH4,S_Ca,S_TH4SiO4,S_Al,S_TNdnr,S_TNdr,S_TA,S_TA,S_TA,RO2Mn_ads,RO2Fe_ads,RFeOx_Ndnr,RFeOx_Ndr</t>
-  </si>
-  <si>
-    <t>S_TNH4,S_TA</t>
-  </si>
-  <si>
-    <t>S_TH3PO4,S_TA</t>
-  </si>
-  <si>
-    <t>pwtods</t>
-  </si>
-  <si>
-    <t>S_MnO2,S_FeOOH,S_FeS,S_SurfMn_Ndnr,S_SurfMn_Ndr,S_SurfFe_Ndnr,S_SurfFe_Ndr,S_NdnrPO4,S_NdrPO4</t>
-  </si>
-  <si>
-    <t>S_Al</t>
-  </si>
-  <si>
-    <t>KO2</t>
-  </si>
-  <si>
-    <t>RO2POC,RNO2POC,RNO3POC,RMnO2POC,RFeOOHPOC,RSO4POC,RCH4POC</t>
-  </si>
-  <si>
-    <t>nu</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>KNO2</t>
-  </si>
-  <si>
-    <t>RNO2POC,RNO3POC,RMnO2POC,RFeOOHPOC,RSO4POC,RCH4POC</t>
-  </si>
-  <si>
-    <t>KNO3</t>
-  </si>
-  <si>
-    <t>RNO3POC,RMnO2POC,RFeOOHPOC,RSO4POC,RCH4POC</t>
-  </si>
-  <si>
-    <t>KMnO2</t>
-  </si>
-  <si>
-    <t>RMnO2POC,RFeOOHPOC,RSO4POC,RCH4POC</t>
-  </si>
-  <si>
-    <t>KFeOOH</t>
-  </si>
-  <si>
-    <t>RFeOOHPOC,RSO4POC,RCH4POC</t>
-  </si>
-  <si>
-    <t>KSO4</t>
-  </si>
-  <si>
-    <t>RSO4POC,RCH4POC</t>
-  </si>
-  <si>
-    <t>kO2NO2</t>
-  </si>
-  <si>
-    <t>kO2NH4</t>
-  </si>
-  <si>
-    <t>kO2Mn</t>
-  </si>
-  <si>
-    <t>kO2Mn_ads</t>
-  </si>
-  <si>
-    <t>kO2Fe</t>
-  </si>
-  <si>
-    <t>kO2Fe_ads</t>
-  </si>
-  <si>
-    <t>kO2H2S</t>
-  </si>
-  <si>
-    <t>kO2FeS</t>
-  </si>
-  <si>
-    <t>kO2CH4</t>
-  </si>
-  <si>
-    <t>kNO2NH4</t>
-  </si>
-  <si>
-    <t>kAOM</t>
-  </si>
-  <si>
-    <t>KAOM</t>
-  </si>
-  <si>
-    <t>kMnO2Fe</t>
-  </si>
-  <si>
-    <t>kMnO2H2S</t>
-  </si>
-  <si>
-    <t>kFeOOHH2S</t>
-  </si>
-  <si>
-    <t>kFeSH2S</t>
-  </si>
-  <si>
-    <t>kFeSdis</t>
-  </si>
-  <si>
-    <t>kFeSpre</t>
-  </si>
-  <si>
-    <t>kCaCO3dis0</t>
-  </si>
-  <si>
-    <t>kCaCO3dis1</t>
-  </si>
-  <si>
-    <t>nCaCO3dis</t>
-  </si>
-  <si>
-    <t>kBSi_dis</t>
-  </si>
-  <si>
-    <t>DNdMn</t>
-  </si>
-  <si>
-    <t>RMnOx_Ndnr,RMnOx_Ndr</t>
-  </si>
-  <si>
-    <t>DNdFe</t>
-  </si>
-  <si>
-    <t>RFeOx_Ndnr,RFeOx_Ndr</t>
-  </si>
-  <si>
-    <t>kNdPO4_pre</t>
-  </si>
-  <si>
-    <t>RNdnrPO4_pre,RNdrPO4_pre</t>
+    <t>kIllite</t>
+  </si>
+  <si>
+    <t>KspIllite</t>
+  </si>
+  <si>
+    <t>kBasalt</t>
+  </si>
+  <si>
+    <t>a_lith0</t>
   </si>
 </sst>
 </file>
@@ -1905,7 +2013,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:L141"/>
+  <dimension ref="A1:L151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2012,7 +2120,7 @@
         <v>21</v>
       </c>
       <c r="J3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
@@ -2048,7 +2156,7 @@
         <v>26</v>
       </c>
       <c r="J4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K4" t="s">
         <v>26</v>
@@ -2084,7 +2192,7 @@
         <v>26</v>
       </c>
       <c r="J5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K5" t="s">
         <v>26</v>
@@ -2120,7 +2228,7 @@
         <v>36</v>
       </c>
       <c r="J6">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K6" t="s">
         <v>36</v>
@@ -2156,7 +2264,7 @@
         <v>26</v>
       </c>
       <c r="J7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K7" t="s">
         <v>26</v>
@@ -2228,7 +2336,7 @@
         <v>21</v>
       </c>
       <c r="J9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K9" t="s">
         <v>21</v>
@@ -2264,7 +2372,7 @@
         <v>26</v>
       </c>
       <c r="J10">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K10" t="s">
         <v>26</v>
@@ -2300,7 +2408,7 @@
         <v>26</v>
       </c>
       <c r="J11">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K11" t="s">
         <v>26</v>
@@ -2336,7 +2444,7 @@
         <v>36</v>
       </c>
       <c r="J12">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K12" t="s">
         <v>36</v>
@@ -2372,7 +2480,7 @@
         <v>26</v>
       </c>
       <c r="J13">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K13" t="s">
         <v>26</v>
@@ -2444,7 +2552,7 @@
         <v>21</v>
       </c>
       <c r="J15">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K15" t="s">
         <v>21</v>
@@ -2480,7 +2588,7 @@
         <v>26</v>
       </c>
       <c r="J16">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K16" t="s">
         <v>26</v>
@@ -2516,7 +2624,7 @@
         <v>26</v>
       </c>
       <c r="J17">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K17" t="s">
         <v>26</v>
@@ -2552,7 +2660,7 @@
         <v>36</v>
       </c>
       <c r="J18">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K18" t="s">
         <v>36</v>
@@ -2588,7 +2696,7 @@
         <v>26</v>
       </c>
       <c r="J19">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K19" t="s">
         <v>26</v>
@@ -2624,7 +2732,7 @@
         <v>21</v>
       </c>
       <c r="J20">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K20" t="s">
         <v>21</v>
@@ -2732,7 +2840,7 @@
         <v>26</v>
       </c>
       <c r="J23">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K23" t="s">
         <v>26</v>
@@ -2768,7 +2876,7 @@
         <v>26</v>
       </c>
       <c r="J24">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" t="s">
         <v>26</v>
@@ -2804,7 +2912,7 @@
         <v>36</v>
       </c>
       <c r="J25">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K25" t="s">
         <v>36</v>
@@ -2840,7 +2948,7 @@
         <v>26</v>
       </c>
       <c r="J26">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K26" t="s">
         <v>26</v>
@@ -2876,7 +2984,7 @@
         <v>36</v>
       </c>
       <c r="J27">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K27" t="s">
         <v>36</v>
@@ -2984,7 +3092,7 @@
         <v>26</v>
       </c>
       <c r="J30">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K30" t="s">
         <v>26</v>
@@ -3020,7 +3128,7 @@
         <v>26</v>
       </c>
       <c r="J31">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K31" t="s">
         <v>26</v>
@@ -3056,7 +3164,7 @@
         <v>36</v>
       </c>
       <c r="J32">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K32" t="s">
         <v>36</v>
@@ -3092,7 +3200,7 @@
         <v>26</v>
       </c>
       <c r="J33">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K33" t="s">
         <v>26</v>
@@ -3128,7 +3236,7 @@
         <v>36</v>
       </c>
       <c r="J34">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K34" t="s">
         <v>36</v>
@@ -3200,7 +3308,7 @@
         <v>21</v>
       </c>
       <c r="J36">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K36" t="s">
         <v>21</v>
@@ -3236,7 +3344,7 @@
         <v>26</v>
       </c>
       <c r="J37">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K37" t="s">
         <v>26</v>
@@ -3272,7 +3380,7 @@
         <v>26</v>
       </c>
       <c r="J38">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K38" t="s">
         <v>26</v>
@@ -3308,7 +3416,7 @@
         <v>36</v>
       </c>
       <c r="J39">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K39" t="s">
         <v>36</v>
@@ -3344,7 +3452,7 @@
         <v>26</v>
       </c>
       <c r="J40">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K40" t="s">
         <v>26</v>
@@ -3380,7 +3488,7 @@
         <v>26</v>
       </c>
       <c r="J41">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K41" t="s">
         <v>26</v>
@@ -3452,7 +3560,7 @@
         <v>26</v>
       </c>
       <c r="J43">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K43" t="s">
         <v>26</v>
@@ -3488,7 +3596,7 @@
         <v>26</v>
       </c>
       <c r="J44">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K44" t="s">
         <v>26</v>
@@ -3524,7 +3632,7 @@
         <v>21</v>
       </c>
       <c r="J45">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K45" t="s">
         <v>21</v>
@@ -3560,7 +3668,7 @@
         <v>36</v>
       </c>
       <c r="J46">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K46" t="s">
         <v>36</v>
@@ -3596,7 +3704,7 @@
         <v>26</v>
       </c>
       <c r="J47">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K47" t="s">
         <v>26</v>
@@ -3632,7 +3740,7 @@
         <v>21</v>
       </c>
       <c r="J48">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K48" t="s">
         <v>21</v>
@@ -3668,7 +3776,7 @@
         <v>21</v>
       </c>
       <c r="J49">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K49" t="s">
         <v>21</v>
@@ -3704,7 +3812,7 @@
         <v>21</v>
       </c>
       <c r="J50">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K50" t="s">
         <v>21</v>
@@ -3740,7 +3848,7 @@
         <v>21</v>
       </c>
       <c r="J51">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K51" t="s">
         <v>21</v>
@@ -3776,7 +3884,7 @@
         <v>36</v>
       </c>
       <c r="J52">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K52" t="s">
         <v>36</v>
@@ -3812,7 +3920,7 @@
         <v>21</v>
       </c>
       <c r="J53">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K53" t="s">
         <v>21</v>
@@ -3848,7 +3956,7 @@
         <v>26</v>
       </c>
       <c r="J54">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K54" t="s">
         <v>26</v>
@@ -3884,7 +3992,7 @@
         <v>21</v>
       </c>
       <c r="J55">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K55" t="s">
         <v>21</v>
@@ -3920,7 +4028,7 @@
         <v>36</v>
       </c>
       <c r="J56">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K56" t="s">
         <v>36</v>
@@ -3992,7 +4100,7 @@
         <v>26</v>
       </c>
       <c r="J58">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K58" t="s">
         <v>26</v>
@@ -4028,7 +4136,7 @@
         <v>21</v>
       </c>
       <c r="J59">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K59" t="s">
         <v>21</v>
@@ -4064,7 +4172,7 @@
         <v>36</v>
       </c>
       <c r="J60">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K60" t="s">
         <v>36</v>
@@ -4136,7 +4244,7 @@
         <v>26</v>
       </c>
       <c r="J62">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K62" t="s">
         <v>26</v>
@@ -4172,7 +4280,7 @@
         <v>21</v>
       </c>
       <c r="J63">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K63" t="s">
         <v>21</v>
@@ -4208,7 +4316,7 @@
         <v>36</v>
       </c>
       <c r="J64">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K64" t="s">
         <v>36</v>
@@ -4280,7 +4388,7 @@
         <v>26</v>
       </c>
       <c r="J66">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K66" t="s">
         <v>26</v>
@@ -4316,7 +4424,7 @@
         <v>21</v>
       </c>
       <c r="J67">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K67" t="s">
         <v>21</v>
@@ -4352,7 +4460,7 @@
         <v>36</v>
       </c>
       <c r="J68">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K68" t="s">
         <v>36</v>
@@ -4424,7 +4532,7 @@
         <v>26</v>
       </c>
       <c r="J70">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K70" t="s">
         <v>26</v>
@@ -4460,7 +4568,7 @@
         <v>21</v>
       </c>
       <c r="J71">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K71" t="s">
         <v>21</v>
@@ -4496,7 +4604,7 @@
         <v>26</v>
       </c>
       <c r="J72">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K72" t="s">
         <v>26</v>
@@ -4532,7 +4640,7 @@
         <v>21</v>
       </c>
       <c r="J73">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K73" t="s">
         <v>21</v>
@@ -4568,7 +4676,7 @@
         <v>26</v>
       </c>
       <c r="J74">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K74" t="s">
         <v>26</v>
@@ -4604,7 +4712,7 @@
         <v>21</v>
       </c>
       <c r="J75">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K75" t="s">
         <v>21</v>
@@ -4712,7 +4820,7 @@
         <v>21</v>
       </c>
       <c r="J78">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K78" t="s">
         <v>21</v>
@@ -4748,7 +4856,7 @@
         <v>26</v>
       </c>
       <c r="J79">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K79" t="s">
         <v>26</v>
@@ -4784,7 +4892,7 @@
         <v>21</v>
       </c>
       <c r="J80">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K80" t="s">
         <v>21</v>
@@ -4820,7 +4928,7 @@
         <v>21</v>
       </c>
       <c r="J81">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K81" t="s">
         <v>21</v>
@@ -4856,7 +4964,7 @@
         <v>26</v>
       </c>
       <c r="J82">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K82" t="s">
         <v>26</v>
@@ -4892,7 +5000,7 @@
         <v>21</v>
       </c>
       <c r="J83">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K83" t="s">
         <v>21</v>
@@ -4928,7 +5036,7 @@
         <v>36</v>
       </c>
       <c r="J84">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K84" t="s">
         <v>36</v>
@@ -4964,7 +5072,7 @@
         <v>21</v>
       </c>
       <c r="J85">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K85" t="s">
         <v>21</v>
@@ -5000,7 +5108,7 @@
         <v>21</v>
       </c>
       <c r="J86">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K86" t="s">
         <v>21</v>
@@ -5036,7 +5144,7 @@
         <v>26</v>
       </c>
       <c r="J87">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K87" t="s">
         <v>26</v>
@@ -5072,7 +5180,7 @@
         <v>26</v>
       </c>
       <c r="J88">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K88" t="s">
         <v>26</v>
@@ -5108,7 +5216,7 @@
         <v>26</v>
       </c>
       <c r="J89">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K89" t="s">
         <v>26</v>
@@ -5180,7 +5288,7 @@
         <v>36</v>
       </c>
       <c r="J91">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K91" t="s">
         <v>36</v>
@@ -5216,7 +5324,7 @@
         <v>36</v>
       </c>
       <c r="J92">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K92" t="s">
         <v>36</v>
@@ -5288,7 +5396,7 @@
         <v>26</v>
       </c>
       <c r="J94">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K94" t="s">
         <v>26</v>
@@ -5360,7 +5468,7 @@
         <v>26</v>
       </c>
       <c r="J96">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K96" t="s">
         <v>26</v>
@@ -5396,7 +5504,7 @@
         <v>26</v>
       </c>
       <c r="J97">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K97" t="s">
         <v>26</v>
@@ -5432,7 +5540,7 @@
         <v>36</v>
       </c>
       <c r="J98">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K98" t="s">
         <v>36</v>
@@ -5504,7 +5612,7 @@
         <v>26</v>
       </c>
       <c r="J100">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K100" t="s">
         <v>26</v>
@@ -5540,7 +5648,7 @@
         <v>26</v>
       </c>
       <c r="J101">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K101" t="s">
         <v>26</v>
@@ -5576,7 +5684,7 @@
         <v>36</v>
       </c>
       <c r="J102">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K102" t="s">
         <v>36</v>
@@ -5648,7 +5756,7 @@
         <v>26</v>
       </c>
       <c r="J104">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K104" t="s">
         <v>26</v>
@@ -5756,7 +5864,7 @@
         <v>26</v>
       </c>
       <c r="J107">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K107" t="s">
         <v>26</v>
@@ -5792,7 +5900,7 @@
         <v>36</v>
       </c>
       <c r="J108">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K108" t="s">
         <v>36</v>
@@ -5828,7 +5936,7 @@
         <v>26</v>
       </c>
       <c r="J109">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K109" t="s">
         <v>26</v>
@@ -5864,7 +5972,7 @@
         <v>36</v>
       </c>
       <c r="J110">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K110" t="s">
         <v>36</v>
@@ -5900,7 +6008,7 @@
         <v>26</v>
       </c>
       <c r="J111">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K111" t="s">
         <v>26</v>
@@ -5972,7 +6080,7 @@
         <v>26</v>
       </c>
       <c r="J113">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K113" t="s">
         <v>26</v>
@@ -6044,7 +6152,7 @@
         <v>21</v>
       </c>
       <c r="J115">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K115" t="s">
         <v>21</v>
@@ -6080,7 +6188,7 @@
         <v>26</v>
       </c>
       <c r="J116">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K116" t="s">
         <v>26</v>
@@ -6152,7 +6260,7 @@
         <v>106</v>
       </c>
       <c r="J118">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K118" t="s">
         <v>106</v>
@@ -6188,7 +6296,7 @@
         <v>21</v>
       </c>
       <c r="J119">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K119" t="s">
         <v>21</v>
@@ -6260,7 +6368,7 @@
         <v>36</v>
       </c>
       <c r="J121">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K121" t="s">
         <v>36</v>
@@ -6332,7 +6440,7 @@
         <v>36</v>
       </c>
       <c r="J123">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K123" t="s">
         <v>36</v>
@@ -6368,7 +6476,7 @@
         <v>36</v>
       </c>
       <c r="J124">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K124" t="s">
         <v>36</v>
@@ -6440,7 +6548,7 @@
         <v>36</v>
       </c>
       <c r="J126">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K126" t="s">
         <v>36</v>
@@ -6548,7 +6656,7 @@
         <v>36</v>
       </c>
       <c r="J129">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K129" t="s">
         <v>36</v>
@@ -6620,7 +6728,7 @@
         <v>36</v>
       </c>
       <c r="J131">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K131" t="s">
         <v>36</v>
@@ -6656,7 +6764,7 @@
         <v>36</v>
       </c>
       <c r="J132">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K132" t="s">
         <v>36</v>
@@ -6728,7 +6836,7 @@
         <v>36</v>
       </c>
       <c r="J134">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K134" t="s">
         <v>36</v>
@@ -6800,7 +6908,7 @@
         <v>36</v>
       </c>
       <c r="J136">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K136" t="s">
         <v>36</v>
@@ -6836,7 +6944,7 @@
         <v>26</v>
       </c>
       <c r="J137">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K137" t="s">
         <v>26</v>
@@ -6908,7 +7016,7 @@
         <v>36</v>
       </c>
       <c r="J139">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K139" t="s">
         <v>36</v>
@@ -6944,7 +7052,7 @@
         <v>26</v>
       </c>
       <c r="J140">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K140" t="s">
         <v>26</v>
@@ -6986,6 +7094,366 @@
         <v>19</v>
       </c>
       <c r="L141" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142" t="s">
+        <v>135</v>
+      </c>
+      <c r="B142" t="s">
+        <v>107</v>
+      </c>
+      <c r="C142" t="s">
+        <v>136</v>
+      </c>
+      <c r="D142" t="s">
+        <v>129</v>
+      </c>
+      <c r="E142" t="s">
+        <v>16</v>
+      </c>
+      <c r="F142" t="s">
+        <v>109</v>
+      </c>
+      <c r="G142"/>
+      <c r="H142" t="s">
+        <v>107</v>
+      </c>
+      <c r="I142" t="s">
+        <v>21</v>
+      </c>
+      <c r="J142">
+        <v>24</v>
+      </c>
+      <c r="K142" t="s">
+        <v>21</v>
+      </c>
+      <c r="L142" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" t="s">
+        <v>135</v>
+      </c>
+      <c r="B143" t="s">
+        <v>103</v>
+      </c>
+      <c r="C143" t="s">
+        <v>137</v>
+      </c>
+      <c r="D143" t="s">
+        <v>15</v>
+      </c>
+      <c r="E143" t="s">
+        <v>16</v>
+      </c>
+      <c r="F143" t="s">
+        <v>104</v>
+      </c>
+      <c r="G143"/>
+      <c r="H143" t="s">
+        <v>105</v>
+      </c>
+      <c r="I143" t="s">
+        <v>106</v>
+      </c>
+      <c r="J143">
+        <v>29</v>
+      </c>
+      <c r="K143" t="s">
+        <v>106</v>
+      </c>
+      <c r="L143" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144" t="s">
+        <v>135</v>
+      </c>
+      <c r="B144" t="s">
+        <v>138</v>
+      </c>
+      <c r="C144" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" t="s">
+        <v>15</v>
+      </c>
+      <c r="E144" t="s">
+        <v>29</v>
+      </c>
+      <c r="F144" t="s">
+        <v>139</v>
+      </c>
+      <c r="G144"/>
+      <c r="H144" t="s">
+        <v>140</v>
+      </c>
+      <c r="I144" t="s">
+        <v>19</v>
+      </c>
+      <c r="J144">
+        <v>15</v>
+      </c>
+      <c r="K144" t="s">
+        <v>19</v>
+      </c>
+      <c r="L144" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145" t="s">
+        <v>135</v>
+      </c>
+      <c r="B145" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" t="s">
+        <v>141</v>
+      </c>
+      <c r="D145" t="s">
+        <v>24</v>
+      </c>
+      <c r="E145" t="s">
+        <v>29</v>
+      </c>
+      <c r="F145" t="s">
+        <v>25</v>
+      </c>
+      <c r="G145"/>
+      <c r="H145" t="s">
+        <v>22</v>
+      </c>
+      <c r="I145" t="s">
+        <v>26</v>
+      </c>
+      <c r="J145">
+        <v>34</v>
+      </c>
+      <c r="K145" t="s">
+        <v>26</v>
+      </c>
+      <c r="L145" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146" t="s">
+        <v>142</v>
+      </c>
+      <c r="B146" t="s">
+        <v>143</v>
+      </c>
+      <c r="C146" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" t="s">
+        <v>15</v>
+      </c>
+      <c r="E146" t="s">
+        <v>16</v>
+      </c>
+      <c r="F146" t="s">
+        <v>144</v>
+      </c>
+      <c r="G146"/>
+      <c r="H146" t="s">
+        <v>145</v>
+      </c>
+      <c r="I146" t="s">
+        <v>19</v>
+      </c>
+      <c r="J146">
+        <v>16</v>
+      </c>
+      <c r="K146" t="s">
+        <v>19</v>
+      </c>
+      <c r="L146" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147" t="s">
+        <v>142</v>
+      </c>
+      <c r="B147" t="s">
+        <v>22</v>
+      </c>
+      <c r="C147" t="s">
+        <v>146</v>
+      </c>
+      <c r="D147" t="s">
+        <v>24</v>
+      </c>
+      <c r="E147" t="s">
+        <v>16</v>
+      </c>
+      <c r="F147" t="s">
+        <v>25</v>
+      </c>
+      <c r="G147"/>
+      <c r="H147" t="s">
+        <v>22</v>
+      </c>
+      <c r="I147" t="s">
+        <v>26</v>
+      </c>
+      <c r="J147">
+        <v>34</v>
+      </c>
+      <c r="K147" t="s">
+        <v>26</v>
+      </c>
+      <c r="L147" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148" t="s">
+        <v>142</v>
+      </c>
+      <c r="B148" t="s">
+        <v>103</v>
+      </c>
+      <c r="C148" t="s">
+        <v>28</v>
+      </c>
+      <c r="D148" t="s">
+        <v>15</v>
+      </c>
+      <c r="E148" t="s">
+        <v>29</v>
+      </c>
+      <c r="F148" t="s">
+        <v>104</v>
+      </c>
+      <c r="G148"/>
+      <c r="H148" t="s">
+        <v>105</v>
+      </c>
+      <c r="I148" t="s">
+        <v>106</v>
+      </c>
+      <c r="J148">
+        <v>29</v>
+      </c>
+      <c r="K148" t="s">
+        <v>106</v>
+      </c>
+      <c r="L148" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" t="s">
+        <v>142</v>
+      </c>
+      <c r="B149" t="s">
+        <v>107</v>
+      </c>
+      <c r="C149" t="s">
+        <v>147</v>
+      </c>
+      <c r="D149" t="s">
+        <v>129</v>
+      </c>
+      <c r="E149" t="s">
+        <v>29</v>
+      </c>
+      <c r="F149" t="s">
+        <v>109</v>
+      </c>
+      <c r="G149"/>
+      <c r="H149" t="s">
+        <v>107</v>
+      </c>
+      <c r="I149" t="s">
+        <v>21</v>
+      </c>
+      <c r="J149">
+        <v>24</v>
+      </c>
+      <c r="K149" t="s">
+        <v>21</v>
+      </c>
+      <c r="L149" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" t="s">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>112</v>
+      </c>
+      <c r="C150" t="s">
+        <v>149</v>
+      </c>
+      <c r="D150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E150" t="s">
+        <v>29</v>
+      </c>
+      <c r="F150" t="s">
+        <v>113</v>
+      </c>
+      <c r="G150"/>
+      <c r="H150" t="s">
+        <v>114</v>
+      </c>
+      <c r="I150" t="s">
+        <v>36</v>
+      </c>
+      <c r="J150">
+        <v>27</v>
+      </c>
+      <c r="K150" t="s">
+        <v>36</v>
+      </c>
+      <c r="L150" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" t="s">
+        <v>148</v>
+      </c>
+      <c r="B151" t="s">
+        <v>117</v>
+      </c>
+      <c r="C151" t="s">
+        <v>150</v>
+      </c>
+      <c r="D151" t="s">
+        <v>15</v>
+      </c>
+      <c r="E151" t="s">
+        <v>29</v>
+      </c>
+      <c r="F151" t="s">
+        <v>118</v>
+      </c>
+      <c r="G151"/>
+      <c r="H151" t="s">
+        <v>119</v>
+      </c>
+      <c r="I151" t="s">
+        <v>36</v>
+      </c>
+      <c r="J151">
+        <v>28</v>
+      </c>
+      <c r="K151" t="s">
+        <v>36</v>
+      </c>
+      <c r="L151" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6996,7 +7464,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -7004,74 +7472,90 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -7092,10 +7576,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="C1" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7103,7 +7587,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -7125,7 +7609,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -7136,10 +7620,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7150,7 +7634,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7161,7 +7645,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7169,10 +7653,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="C8" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7180,10 +7664,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7191,7 +7675,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C10" t="s">
         <v>47</v>
@@ -7205,7 +7689,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7213,7 +7697,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -7224,7 +7708,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s">
         <v>48</v>
@@ -7235,10 +7719,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C14" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7249,7 +7733,7 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7260,7 +7744,7 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7268,10 +7752,10 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="C17" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7279,10 +7763,10 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C18" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7301,7 +7785,7 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -7312,7 +7796,7 @@
         <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -7334,7 +7818,7 @@
         <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -7345,10 +7829,10 @@
         <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C24" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -7359,7 +7843,7 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -7370,7 +7854,7 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -7378,10 +7862,10 @@
         <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="C27" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -7389,10 +7873,10 @@
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C28" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -7400,7 +7884,7 @@
         <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C29" t="s">
         <v>43</v>
@@ -7411,10 +7895,10 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C30" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -7425,7 +7909,7 @@
         <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -7433,7 +7917,7 @@
         <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -7444,7 +7928,7 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C33" t="s">
         <v>48</v>
@@ -7455,10 +7939,10 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C34" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -7469,7 +7953,7 @@
         <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -7480,7 +7964,7 @@
         <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -7488,10 +7972,10 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="C37" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -7499,10 +7983,10 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C38" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -7510,10 +7994,10 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C39" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -7524,7 +8008,7 @@
         <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -7532,10 +8016,10 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C41" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -7543,7 +8027,7 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
@@ -7565,7 +8049,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
@@ -7576,10 +8060,10 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C45" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -7590,7 +8074,7 @@
         <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -7601,7 +8085,7 @@
         <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -7609,10 +8093,10 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="C48" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -7620,10 +8104,10 @@
         <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C49" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -7631,7 +8115,7 @@
         <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C50" t="s">
         <v>47</v>
@@ -7642,10 +8126,10 @@
         <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C51" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -7656,7 +8140,7 @@
         <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -7664,7 +8148,7 @@
         <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -7675,7 +8159,7 @@
         <v>45</v>
       </c>
       <c r="B54" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C54" t="s">
         <v>48</v>
@@ -7686,10 +8170,10 @@
         <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C55" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -7700,7 +8184,7 @@
         <v>22</v>
       </c>
       <c r="C56" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -7711,7 +8195,7 @@
         <v>22</v>
       </c>
       <c r="C57" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -7719,10 +8203,10 @@
         <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="C58" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -7730,10 +8214,10 @@
         <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C59" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -7741,7 +8225,7 @@
         <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C60" t="s">
         <v>48</v>
@@ -7752,7 +8236,7 @@
         <v>45</v>
       </c>
       <c r="B61" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C61" t="s">
         <v>61</v>
@@ -7774,7 +8258,7 @@
         <v>45</v>
       </c>
       <c r="B63" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -7785,7 +8269,7 @@
         <v>49</v>
       </c>
       <c r="B64" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
@@ -7807,7 +8291,7 @@
         <v>49</v>
       </c>
       <c r="B66" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
@@ -7818,10 +8302,10 @@
         <v>49</v>
       </c>
       <c r="B67" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C67" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -7832,7 +8316,7 @@
         <v>22</v>
       </c>
       <c r="C68" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -7843,7 +8327,7 @@
         <v>22</v>
       </c>
       <c r="C69" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -7851,10 +8335,10 @@
         <v>49</v>
       </c>
       <c r="B70" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="C70" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -7862,10 +8346,10 @@
         <v>49</v>
       </c>
       <c r="B71" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C71" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -7884,7 +8368,7 @@
         <v>49</v>
       </c>
       <c r="B73" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C73" t="s">
         <v>58</v>
@@ -7898,7 +8382,7 @@
         <v>22</v>
       </c>
       <c r="C74" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -7906,7 +8390,7 @@
         <v>49</v>
       </c>
       <c r="B75" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7917,7 +8401,7 @@
         <v>49</v>
       </c>
       <c r="B76" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C76" t="s">
         <v>48</v>
@@ -7928,10 +8412,10 @@
         <v>49</v>
       </c>
       <c r="B77" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C77" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -7942,7 +8426,7 @@
         <v>22</v>
       </c>
       <c r="C78" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -7953,7 +8437,7 @@
         <v>22</v>
       </c>
       <c r="C79" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -7961,10 +8445,10 @@
         <v>49</v>
       </c>
       <c r="B80" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="C80" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -7972,10 +8456,10 @@
         <v>49</v>
       </c>
       <c r="B81" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C81" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -7997,7 +8481,7 @@
         <v>22</v>
       </c>
       <c r="C83" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -8005,10 +8489,10 @@
         <v>49</v>
       </c>
       <c r="B84" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C84" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -8016,7 +8500,7 @@
         <v>56</v>
       </c>
       <c r="B85" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
@@ -8038,7 +8522,7 @@
         <v>56</v>
       </c>
       <c r="B87" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
@@ -8049,10 +8533,10 @@
         <v>56</v>
       </c>
       <c r="B88" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C88" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -8063,7 +8547,7 @@
         <v>22</v>
       </c>
       <c r="C89" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -8074,7 +8558,7 @@
         <v>22</v>
       </c>
       <c r="C90" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -8082,10 +8566,10 @@
         <v>56</v>
       </c>
       <c r="B91" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="C91" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -8093,10 +8577,10 @@
         <v>56</v>
       </c>
       <c r="B92" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C92" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -8115,7 +8599,7 @@
         <v>56</v>
       </c>
       <c r="B94" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C94" t="s">
         <v>58</v>
@@ -8126,7 +8610,7 @@
         <v>56</v>
       </c>
       <c r="B95" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C95" t="s">
         <v>58</v>
@@ -8151,7 +8635,7 @@
         <v>22</v>
       </c>
       <c r="C97" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -8159,7 +8643,7 @@
         <v>56</v>
       </c>
       <c r="B98" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -8170,7 +8654,7 @@
         <v>56</v>
       </c>
       <c r="B99" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C99" t="s">
         <v>48</v>
@@ -8181,10 +8665,10 @@
         <v>56</v>
       </c>
       <c r="B100" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C100" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -8195,7 +8679,7 @@
         <v>22</v>
       </c>
       <c r="C101" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -8206,7 +8690,7 @@
         <v>22</v>
       </c>
       <c r="C102" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -8214,10 +8698,10 @@
         <v>56</v>
       </c>
       <c r="B103" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="C103" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -8225,10 +8709,10 @@
         <v>56</v>
       </c>
       <c r="B104" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C104" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -8250,7 +8734,7 @@
         <v>22</v>
       </c>
       <c r="C106" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -8258,10 +8742,10 @@
         <v>56</v>
       </c>
       <c r="B107" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C107" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -8269,7 +8753,7 @@
         <v>64</v>
       </c>
       <c r="B108" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
@@ -8291,7 +8775,7 @@
         <v>64</v>
       </c>
       <c r="B110" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C110" t="s">
         <v>14</v>
@@ -8302,10 +8786,10 @@
         <v>64</v>
       </c>
       <c r="B111" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C111" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -8316,7 +8800,7 @@
         <v>22</v>
       </c>
       <c r="C112" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -8327,7 +8811,7 @@
         <v>22</v>
       </c>
       <c r="C113" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -8335,10 +8819,10 @@
         <v>64</v>
       </c>
       <c r="B114" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="C114" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -8346,10 +8830,10 @@
         <v>64</v>
       </c>
       <c r="B115" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C115" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -8357,7 +8841,7 @@
         <v>64</v>
       </c>
       <c r="B116" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C116" t="s">
         <v>66</v>
@@ -8368,7 +8852,7 @@
         <v>64</v>
       </c>
       <c r="B117" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C117" t="s">
         <v>47</v>
@@ -8382,7 +8866,7 @@
         <v>22</v>
       </c>
       <c r="C118" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -8390,7 +8874,7 @@
         <v>64</v>
       </c>
       <c r="B119" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -8401,7 +8885,7 @@
         <v>64</v>
       </c>
       <c r="B120" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C120" t="s">
         <v>48</v>
@@ -8412,10 +8896,10 @@
         <v>64</v>
       </c>
       <c r="B121" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C121" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -8426,7 +8910,7 @@
         <v>22</v>
       </c>
       <c r="C122" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -8437,7 +8921,7 @@
         <v>22</v>
       </c>
       <c r="C123" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -8445,10 +8929,10 @@
         <v>64</v>
       </c>
       <c r="B124" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="C124" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -8456,10 +8940,10 @@
         <v>64</v>
       </c>
       <c r="B125" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C125" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -8478,7 +8962,7 @@
         <v>64</v>
       </c>
       <c r="B127" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C127" t="s">
         <v>69</v>
@@ -8500,7 +8984,7 @@
         <v>64</v>
       </c>
       <c r="B129" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -8511,7 +8995,7 @@
         <v>72</v>
       </c>
       <c r="B130" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C130" t="s">
         <v>14</v>
@@ -8533,7 +9017,7 @@
         <v>72</v>
       </c>
       <c r="B132" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C132" t="s">
         <v>14</v>
@@ -8544,10 +9028,10 @@
         <v>72</v>
       </c>
       <c r="B133" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C133" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -8558,7 +9042,7 @@
         <v>22</v>
       </c>
       <c r="C134" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -8569,7 +9053,7 @@
         <v>22</v>
       </c>
       <c r="C135" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -8577,10 +9061,10 @@
         <v>72</v>
       </c>
       <c r="B136" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="C136" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -8588,10 +9072,10 @@
         <v>72</v>
       </c>
       <c r="B137" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C137" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -8602,7 +9086,7 @@
         <v>22</v>
       </c>
       <c r="C138" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -8610,7 +9094,7 @@
         <v>72</v>
       </c>
       <c r="B139" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C139" t="s">
         <v>69</v>
@@ -8621,7 +9105,7 @@
         <v>72</v>
       </c>
       <c r="B140" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -8632,7 +9116,7 @@
         <v>72</v>
       </c>
       <c r="B141" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C141" t="s">
         <v>69</v>
@@ -8654,10 +9138,10 @@
         <v>72</v>
       </c>
       <c r="B143" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C143" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -8668,7 +9152,7 @@
         <v>22</v>
       </c>
       <c r="C144" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -8679,7 +9163,7 @@
         <v>22</v>
       </c>
       <c r="C145" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -8687,10 +9171,10 @@
         <v>72</v>
       </c>
       <c r="B146" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="C146" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -8698,10 +9182,10 @@
         <v>72</v>
       </c>
       <c r="B147" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C147" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -8709,7 +9193,7 @@
         <v>74</v>
       </c>
       <c r="B148" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C148" t="s">
         <v>14</v>
@@ -8720,7 +9204,7 @@
         <v>74</v>
       </c>
       <c r="B149" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C149" t="s">
         <v>14</v>
@@ -8731,7 +9215,7 @@
         <v>74</v>
       </c>
       <c r="B150" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C150" t="s">
         <v>47</v>
@@ -8742,7 +9226,7 @@
         <v>74</v>
       </c>
       <c r="B151" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -8753,10 +9237,10 @@
         <v>74</v>
       </c>
       <c r="B152" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C152" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -8764,7 +9248,7 @@
         <v>75</v>
       </c>
       <c r="B153" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C153" t="s">
         <v>131</v>
@@ -8775,7 +9259,7 @@
         <v>75</v>
       </c>
       <c r="B154" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C154" t="s">
         <v>14</v>
@@ -8797,7 +9281,7 @@
         <v>75</v>
       </c>
       <c r="B156" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -8808,7 +9292,7 @@
         <v>75</v>
       </c>
       <c r="B157" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C157" t="s">
         <v>48</v>
@@ -8841,7 +9325,7 @@
         <v>75</v>
       </c>
       <c r="B160" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -8852,7 +9336,7 @@
         <v>77</v>
       </c>
       <c r="B161" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C161" t="s">
         <v>14</v>
@@ -8885,7 +9369,7 @@
         <v>77</v>
       </c>
       <c r="B164" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C164" t="s">
         <v>14</v>
@@ -8907,7 +9391,7 @@
         <v>77</v>
       </c>
       <c r="B166" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C166" t="s">
         <v>48</v>
@@ -8929,7 +9413,7 @@
         <v>78</v>
       </c>
       <c r="B168" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C168" t="s">
         <v>14</v>
@@ -8962,7 +9446,7 @@
         <v>78</v>
       </c>
       <c r="B171" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C171" t="s">
         <v>14</v>
@@ -8984,7 +9468,7 @@
         <v>78</v>
       </c>
       <c r="B173" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C173" t="s">
         <v>48</v>
@@ -9006,7 +9490,7 @@
         <v>79</v>
       </c>
       <c r="B175" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C175" t="s">
         <v>66</v>
@@ -9039,7 +9523,7 @@
         <v>79</v>
       </c>
       <c r="B178" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C178" t="s">
         <v>76</v>
@@ -9061,7 +9545,7 @@
         <v>79</v>
       </c>
       <c r="B180" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -9072,7 +9556,7 @@
         <v>79</v>
       </c>
       <c r="B181" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -9105,7 +9589,7 @@
         <v>81</v>
       </c>
       <c r="B184" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C184" t="s">
         <v>66</v>
@@ -9138,7 +9622,7 @@
         <v>81</v>
       </c>
       <c r="B187" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C187" t="s">
         <v>76</v>
@@ -9160,7 +9644,7 @@
         <v>81</v>
       </c>
       <c r="B189" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -9171,7 +9655,7 @@
         <v>81</v>
       </c>
       <c r="B190" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -9204,7 +9688,7 @@
         <v>82</v>
       </c>
       <c r="B193" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C193" t="s">
         <v>58</v>
@@ -9226,7 +9710,7 @@
         <v>82</v>
       </c>
       <c r="B195" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C195" t="s">
         <v>14</v>
@@ -9237,7 +9721,7 @@
         <v>82</v>
       </c>
       <c r="B196" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -9248,7 +9732,7 @@
         <v>82</v>
       </c>
       <c r="B197" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C197" t="s">
         <v>61</v>
@@ -9270,10 +9754,10 @@
         <v>83</v>
       </c>
       <c r="B199" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C199" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -9292,7 +9776,7 @@
         <v>83</v>
       </c>
       <c r="B201" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C201" t="s">
         <v>14</v>
@@ -9314,7 +9798,7 @@
         <v>83</v>
       </c>
       <c r="B203" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C203" t="s">
         <v>76</v>
@@ -9336,7 +9820,7 @@
         <v>83</v>
       </c>
       <c r="B205" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -9347,7 +9831,7 @@
         <v>83</v>
       </c>
       <c r="B206" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -9369,7 +9853,7 @@
         <v>83</v>
       </c>
       <c r="B208" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -9380,7 +9864,7 @@
         <v>83</v>
       </c>
       <c r="B209" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C209" t="s">
         <v>61</v>
@@ -9402,7 +9886,7 @@
         <v>86</v>
       </c>
       <c r="B211" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C211" t="s">
         <v>58</v>
@@ -9413,7 +9897,7 @@
         <v>86</v>
       </c>
       <c r="B212" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C212" t="s">
         <v>14</v>
@@ -9435,7 +9919,7 @@
         <v>86</v>
       </c>
       <c r="B214" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -9446,7 +9930,7 @@
         <v>86</v>
       </c>
       <c r="B215" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C215" t="s">
         <v>48</v>
@@ -9468,7 +9952,7 @@
         <v>86</v>
       </c>
       <c r="B217" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C217" t="s">
         <v>48</v>
@@ -9479,7 +9963,7 @@
         <v>87</v>
       </c>
       <c r="B218" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C218" t="s">
         <v>14</v>
@@ -9490,7 +9974,7 @@
         <v>87</v>
       </c>
       <c r="B219" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C219" t="s">
         <v>47</v>
@@ -9501,7 +9985,7 @@
         <v>87</v>
       </c>
       <c r="B220" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C220" t="s">
         <v>14</v>
@@ -9523,7 +10007,7 @@
         <v>87</v>
       </c>
       <c r="B222" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C222" t="s">
         <v>48</v>
@@ -9545,7 +10029,7 @@
         <v>87</v>
       </c>
       <c r="B224" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C224" t="s">
         <v>48</v>
@@ -9556,7 +10040,7 @@
         <v>88</v>
       </c>
       <c r="B225" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C225" t="s">
         <v>14</v>
@@ -9567,7 +10051,7 @@
         <v>88</v>
       </c>
       <c r="B226" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C226" t="s">
         <v>58</v>
@@ -9578,7 +10062,7 @@
         <v>88</v>
       </c>
       <c r="B227" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C227" t="s">
         <v>14</v>
@@ -9611,7 +10095,7 @@
         <v>88</v>
       </c>
       <c r="B230" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -9622,7 +10106,7 @@
         <v>88</v>
       </c>
       <c r="B231" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C231" t="s">
         <v>48</v>
@@ -9644,7 +10128,7 @@
         <v>88</v>
       </c>
       <c r="B233" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -9666,7 +10150,7 @@
         <v>88</v>
       </c>
       <c r="B235" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C235" t="s">
         <v>48</v>
@@ -9688,7 +10172,7 @@
         <v>89</v>
       </c>
       <c r="B237" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C237" t="s">
         <v>14</v>
@@ -9721,7 +10205,7 @@
         <v>89</v>
       </c>
       <c r="B240" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C240" t="s">
         <v>14</v>
@@ -9754,7 +10238,7 @@
         <v>89</v>
       </c>
       <c r="B243" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -9765,7 +10249,7 @@
         <v>89</v>
       </c>
       <c r="B244" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -9809,7 +10293,7 @@
         <v>90</v>
       </c>
       <c r="B248" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C248" t="s">
         <v>47</v>
@@ -9831,7 +10315,7 @@
         <v>90</v>
       </c>
       <c r="B250" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C250" t="s">
         <v>14</v>
@@ -9864,7 +10348,7 @@
         <v>90</v>
       </c>
       <c r="B253" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -9886,7 +10370,7 @@
         <v>90</v>
       </c>
       <c r="B255" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C255" t="s">
         <v>48</v>
@@ -9908,7 +10392,7 @@
         <v>91</v>
       </c>
       <c r="B257" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C257" t="s">
         <v>47</v>
@@ -9919,7 +10403,7 @@
         <v>91</v>
       </c>
       <c r="B258" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C258" t="s">
         <v>47</v>
@@ -9952,7 +10436,7 @@
         <v>91</v>
       </c>
       <c r="B261" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C261" t="s">
         <v>14</v>
@@ -9985,7 +10469,7 @@
         <v>91</v>
       </c>
       <c r="B264" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -9999,7 +10483,7 @@
         <v>22</v>
       </c>
       <c r="C265" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -10007,7 +10491,7 @@
         <v>91</v>
       </c>
       <c r="B266" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C266" t="s">
         <v>61</v>
@@ -10029,7 +10513,7 @@
         <v>92</v>
       </c>
       <c r="B268" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C268" t="s">
         <v>14</v>
@@ -10051,7 +10535,7 @@
         <v>92</v>
       </c>
       <c r="B270" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C270" t="s">
         <v>14</v>
@@ -10073,7 +10557,7 @@
         <v>92</v>
       </c>
       <c r="B272" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C272" t="s">
         <v>48</v>
@@ -10106,7 +10590,7 @@
         <v>94</v>
       </c>
       <c r="B275" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C275" t="s">
         <v>14</v>
@@ -10150,7 +10634,7 @@
         <v>94</v>
       </c>
       <c r="B279" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -10183,7 +10667,7 @@
         <v>96</v>
       </c>
       <c r="B282" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C282" t="s">
         <v>14</v>
@@ -10205,7 +10689,7 @@
         <v>96</v>
       </c>
       <c r="B284" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -10238,7 +10722,7 @@
         <v>97</v>
       </c>
       <c r="B287" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C287" t="s">
         <v>14</v>
@@ -10249,7 +10733,7 @@
         <v>97</v>
       </c>
       <c r="B288" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C288" t="s">
         <v>131</v>
@@ -10271,7 +10755,7 @@
         <v>97</v>
       </c>
       <c r="B290" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -10282,10 +10766,10 @@
         <v>97</v>
       </c>
       <c r="B291" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C291" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -10293,7 +10777,7 @@
         <v>110</v>
       </c>
       <c r="B292" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="C292" t="s">
         <v>14</v>
@@ -10326,7 +10810,7 @@
         <v>110</v>
       </c>
       <c r="B295" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -10359,7 +10843,7 @@
         <v>115</v>
       </c>
       <c r="B298" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="C298" t="s">
         <v>14</v>
@@ -10392,7 +10876,7 @@
         <v>115</v>
       </c>
       <c r="B301" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -10436,7 +10920,7 @@
         <v>120</v>
       </c>
       <c r="B305" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="C305" t="s">
         <v>14</v>
@@ -10458,7 +10942,7 @@
         <v>120</v>
       </c>
       <c r="B307" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -10502,7 +10986,7 @@
         <v>121</v>
       </c>
       <c r="B311" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="C311" t="s">
         <v>14</v>
@@ -10524,7 +11008,7 @@
         <v>121</v>
       </c>
       <c r="B313" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -10557,7 +11041,7 @@
         <v>122</v>
       </c>
       <c r="B316" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="C316" t="s">
         <v>14</v>
@@ -10590,7 +11074,7 @@
         <v>122</v>
       </c>
       <c r="B319" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -10623,7 +11107,7 @@
         <v>124</v>
       </c>
       <c r="B322" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="C322" t="s">
         <v>14</v>
@@ -10656,7 +11140,7 @@
         <v>124</v>
       </c>
       <c r="B325" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -10700,7 +11184,7 @@
         <v>126</v>
       </c>
       <c r="B329" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="C329" t="s">
         <v>14</v>
@@ -10722,7 +11206,7 @@
         <v>126</v>
       </c>
       <c r="B331" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -10766,7 +11250,7 @@
         <v>127</v>
       </c>
       <c r="B335" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="C335" t="s">
         <v>14</v>
@@ -10788,7 +11272,7 @@
         <v>127</v>
       </c>
       <c r="B337" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -10832,7 +11316,7 @@
         <v>128</v>
       </c>
       <c r="B341" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="C341" t="s">
         <v>14</v>
@@ -10843,7 +11327,7 @@
         <v>128</v>
       </c>
       <c r="B342" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C342" t="s">
         <v>58</v>
@@ -10865,7 +11349,7 @@
         <v>128</v>
       </c>
       <c r="B344" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
@@ -10876,7 +11360,7 @@
         <v>128</v>
       </c>
       <c r="B345" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C345" t="s">
         <v>61</v>
@@ -10898,7 +11382,7 @@
         <v>133</v>
       </c>
       <c r="B347" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="C347" t="s">
         <v>14</v>
@@ -10909,7 +11393,7 @@
         <v>133</v>
       </c>
       <c r="B348" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C348" t="s">
         <v>58</v>
@@ -10931,7 +11415,7 @@
         <v>133</v>
       </c>
       <c r="B350" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -10942,7 +11426,7 @@
         <v>133</v>
       </c>
       <c r="B351" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C351" t="s">
         <v>61</v>
@@ -10955,7 +11439,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -10966,7 +11450,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -10974,7 +11458,7 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -10982,7 +11466,7 @@
         <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -10990,7 +11474,7 @@
         <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -10998,7 +11482,7 @@
         <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -11006,207 +11490,223 @@
         <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="B20" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="B21" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="B28" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
         <v>93</v>
       </c>
-      <c r="B31" t="s">
-        <v>206</v>
+      <c r="B33" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -11216,7 +11716,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:B225"/>
+  <dimension ref="A1:B233"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -11224,1802 +11724,1866 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="B1" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="B2" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="B3" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="B8" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="B9" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="B10" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="B11" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="B12" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="B13" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="B14" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="B15" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="B16" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="B17" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="B18" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="B19" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="B20" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="B21" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="B22" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>252</v>
+      </c>
+      <c r="B23" t="s">
         <v>231</v>
-      </c>
-      <c r="B23" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="B24" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="B31" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="B32" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="B33" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="B34" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="B35" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="B36" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="B37" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="B38" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="B39" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="B40" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="B41" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="B42" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="B43" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="B44" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="B45" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="B46" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="B47" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="B48" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="B49" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="B50" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="B51" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="B52" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="B53" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="B54" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="B55" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="B56" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
+        <v>287</v>
+      </c>
+      <c r="B57" t="s">
         <v>266</v>
-      </c>
-      <c r="B57" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="B58" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="B59" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="B60" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="B61" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="B62" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="B63" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="B64" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="B65" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="B66" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="B67" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="B68" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="B69" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="B70" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="B71" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="B72" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="B73" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="B74" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="B75" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="B76" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="B77" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="B78" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="B79" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="B80" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="B81" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="B82" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="B83" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="B84" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="B85" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="B86" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="B87" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="B88" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="B89" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="B90" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="B91" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="B92" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="B93" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="B94" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="B95" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="B96" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="B97" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="B98" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="B99" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="B100" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="B101" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="B102" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="B103" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="B104" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="B105" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="B106" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="B107" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
+        <v>339</v>
+      </c>
+      <c r="B108" t="s">
         <v>318</v>
-      </c>
-      <c r="B108" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="B109" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="B110" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="B111" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="B112" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="B113" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="B114" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="B115" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="B116" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="B117" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="B118" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="B119" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="B120" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="B121" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="B122" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="B123" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="B124" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="B125" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="B126" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="B127" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="B128" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="B129" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="B130" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="B131" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="B132" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="B133" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="B134" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="B135" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="B136" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="B137" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="B138" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="B139" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="B140" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="B141" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="B142" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="B143" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="B144" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="B145" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="B146" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="B147" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="B148" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="B149" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="B150" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="B151" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="B152" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="B153" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="B154" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="B155" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="B156" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="B157" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="B158" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="B159" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
       <c r="B160" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="B161" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="B162" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="B163" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="B164" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="B165" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="B166" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="B167" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="B168" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="B169" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="B170" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
       <c r="B171" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="B172" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="B173" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
       <c r="B174" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="B175" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="B176" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="B177" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="B178" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="B179" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="B180" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="B181" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="B182" t="s">
-        <v>393</v>
+        <v>318</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="B183" t="s">
-        <v>393</v>
+        <v>318</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="B184" t="s">
-        <v>393</v>
+        <v>318</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="B185" t="s">
-        <v>393</v>
+        <v>318</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="B186" t="s">
-        <v>393</v>
+        <v>318</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="B187" t="s">
-        <v>393</v>
+        <v>318</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="B188" t="s">
-        <v>393</v>
+        <v>318</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="B189" t="s">
-        <v>393</v>
+        <v>318</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="B190" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="B191" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="B192" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="B193" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="B194" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="B195" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="B196" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>408</v>
+        <v>429</v>
       </c>
       <c r="B197" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="B198" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="B199" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="B200" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="B201" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="B202" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="B203" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="B204" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="B205" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="B206" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="B207" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
       <c r="B208" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="B209" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
+        <v>442</v>
+      </c>
+      <c r="B210" t="s">
         <v>422</v>
-      </c>
-      <c r="B210" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="B211" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="B212" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="B213" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="B214" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="B215" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="B216" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="B217" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="B218" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="B219" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="B220" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="B221" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="B222" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="B223" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="B224" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="B225" t="s">
-        <v>430</v>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>460</v>
+      </c>
+      <c r="B226" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>461</v>
+      </c>
+      <c r="B227" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>462</v>
+      </c>
+      <c r="B228" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>463</v>
+      </c>
+      <c r="B229" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>464</v>
+      </c>
+      <c r="B230" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>465</v>
+      </c>
+      <c r="B231" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>466</v>
+      </c>
+      <c r="B232" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>467</v>
+      </c>
+      <c r="B233" t="s">
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -13029,7 +13593,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -13037,167 +13601,167 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="B1" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="C1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>439</v>
+        <v>468</v>
       </c>
       <c r="B2" t="s">
-        <v>440</v>
+        <v>469</v>
       </c>
       <c r="C2" t="s">
-        <v>441</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>420</v>
+        <v>449</v>
       </c>
       <c r="B3" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="C3" t="s">
-        <v>442</v>
+        <v>471</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>422</v>
+        <v>451</v>
       </c>
       <c r="B4" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="C4" t="s">
-        <v>443</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>423</v>
+        <v>452</v>
       </c>
       <c r="B5" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="C5" t="s">
-        <v>444</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>424</v>
+        <v>453</v>
       </c>
       <c r="B6" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="C6" t="s">
-        <v>445</v>
+        <v>474</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>425</v>
+        <v>454</v>
       </c>
       <c r="B7" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="C7" t="s">
-        <v>446</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>426</v>
+        <v>455</v>
       </c>
       <c r="B8" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="C8" t="s">
-        <v>447</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>427</v>
+        <v>456</v>
       </c>
       <c r="B9" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="C9" t="s">
-        <v>448</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>428</v>
+        <v>457</v>
       </c>
       <c r="B10" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="C10" t="s">
-        <v>449</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>450</v>
+        <v>479</v>
       </c>
       <c r="B11" t="s">
-        <v>451</v>
+        <v>480</v>
       </c>
       <c r="C11" t="s">
-        <v>452</v>
+        <v>481</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>453</v>
+        <v>482</v>
       </c>
       <c r="B12" t="s">
-        <v>451</v>
+        <v>480</v>
       </c>
       <c r="C12" t="s">
-        <v>454</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>455</v>
+        <v>484</v>
       </c>
       <c r="B13" t="s">
-        <v>451</v>
+        <v>480</v>
       </c>
       <c r="C13" t="s">
-        <v>456</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>457</v>
+        <v>486</v>
       </c>
       <c r="B14" t="s">
-        <v>451</v>
+        <v>480</v>
       </c>
       <c r="C14" t="s">
-        <v>458</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>422</v>
+        <v>451</v>
       </c>
       <c r="B15" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="C15" t="s">
-        <v>460</v>
+        <v>489</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -13205,10 +13769,10 @@
         <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="C16" t="s">
-        <v>461</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -13216,21 +13780,21 @@
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="C17" t="s">
-        <v>462</v>
+        <v>491</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="B18" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="C18" t="s">
-        <v>464</v>
+        <v>493</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -13238,326 +13802,326 @@
         <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="C19" t="s">
-        <v>465</v>
+        <v>494</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>466</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="C20" t="s">
-        <v>467</v>
+        <v>495</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>468</v>
+        <v>150</v>
       </c>
       <c r="B21" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="C21" t="s">
-        <v>467</v>
+        <v>496</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>469</v>
+        <v>497</v>
       </c>
       <c r="B22" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="C22" t="s">
-        <v>467</v>
+        <v>498</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>470</v>
+        <v>499</v>
       </c>
       <c r="B23" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="C23" t="s">
-        <v>471</v>
+        <v>498</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>472</v>
+        <v>500</v>
       </c>
       <c r="B24" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="C24" t="s">
-        <v>473</v>
+        <v>498</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>474</v>
+        <v>501</v>
       </c>
       <c r="B25" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="C25" t="s">
-        <v>475</v>
+        <v>502</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>476</v>
+        <v>503</v>
       </c>
       <c r="B26" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="C26" t="s">
-        <v>477</v>
+        <v>504</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>478</v>
+        <v>505</v>
       </c>
       <c r="B27" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="C27" t="s">
-        <v>479</v>
+        <v>506</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>480</v>
+        <v>507</v>
       </c>
       <c r="B28" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>508</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>481</v>
+        <v>509</v>
       </c>
       <c r="B29" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>510</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>482</v>
+        <v>511</v>
       </c>
       <c r="B30" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>483</v>
+        <v>512</v>
       </c>
       <c r="B31" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>484</v>
+        <v>513</v>
       </c>
       <c r="B32" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>485</v>
+        <v>514</v>
       </c>
       <c r="B33" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>486</v>
+        <v>515</v>
       </c>
       <c r="B34" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>487</v>
+        <v>516</v>
       </c>
       <c r="B35" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>517</v>
+      </c>
+      <c r="B36" t="s">
         <v>488</v>
       </c>
-      <c r="B36" t="s">
-        <v>459</v>
-      </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>489</v>
+        <v>518</v>
       </c>
       <c r="B37" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>490</v>
+        <v>519</v>
       </c>
       <c r="B38" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>491</v>
+        <v>520</v>
       </c>
       <c r="B39" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>492</v>
+        <v>521</v>
       </c>
       <c r="B40" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>493</v>
+        <v>522</v>
       </c>
       <c r="B41" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>494</v>
+        <v>523</v>
       </c>
       <c r="B42" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>495</v>
+        <v>524</v>
       </c>
       <c r="B43" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>496</v>
+        <v>525</v>
       </c>
       <c r="B44" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="C44" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>497</v>
+        <v>526</v>
       </c>
       <c r="B45" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>498</v>
+        <v>527</v>
       </c>
       <c r="B46" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>499</v>
+        <v>528</v>
       </c>
       <c r="B47" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>500</v>
+        <v>529</v>
       </c>
       <c r="B48" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="C48" t="s">
         <v>97</v>
@@ -13565,46 +14129,123 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>501</v>
+        <v>530</v>
       </c>
       <c r="B49" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>502</v>
+        <v>531</v>
       </c>
       <c r="B50" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="C50" t="s">
-        <v>503</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>504</v>
+        <v>532</v>
       </c>
       <c r="B51" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="C51" t="s">
-        <v>505</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>506</v>
+        <v>533</v>
       </c>
       <c r="B52" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="C52" t="s">
-        <v>507</v>
+        <v>534</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>535</v>
+      </c>
+      <c r="B53" t="s">
+        <v>488</v>
+      </c>
+      <c r="C53" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>537</v>
+      </c>
+      <c r="B54" t="s">
+        <v>488</v>
+      </c>
+      <c r="C54" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>539</v>
+      </c>
+      <c r="B55" t="s">
+        <v>488</v>
+      </c>
+      <c r="C55" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>540</v>
+      </c>
+      <c r="B56" t="s">
+        <v>488</v>
+      </c>
+      <c r="C56" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>541</v>
+      </c>
+      <c r="B57" t="s">
+        <v>488</v>
+      </c>
+      <c r="C57" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>542</v>
+      </c>
+      <c r="B58" t="s">
+        <v>488</v>
+      </c>
+      <c r="C58" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>543</v>
+      </c>
+      <c r="B59" t="s">
+        <v>488</v>
+      </c>
+      <c r="C59" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/examples/OregonNd/model_parsing_diagnostics.OregonNd.xlsx
+++ b/examples/OregonNd/model_parsing_diagnostics.OregonNd.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="545">
   <si>
     <t>label</t>
   </si>
@@ -47,7 +47,7 @@
     <t>role</t>
   </si>
   <si>
-    <t>species_modelled</t>
+    <t>formula</t>
   </si>
   <si>
     <t>codename</t>
@@ -134,7 +134,7 @@
     <t>rNC</t>
   </si>
   <si>
-    <t>TNH4,NH4_ads,NH4</t>
+    <t>TNH4,NH4{+},NH4_ads,TNH4_ads,TNH4_ads_nsf,TNH4_dis</t>
   </si>
   <si>
     <t>TNH4</t>
@@ -194,7 +194,7 @@
     <t>+2</t>
   </si>
   <si>
-    <t>TMn,Mn{2+}/Mn_free,Mn_ads_Mn,Mn_ads_Fe</t>
+    <t>TMn,Mn{2+}/Mn_aq,Mn(OH){+}/Mn_OH_aq,Mn(OH)[2]/Mn_OH_2_aq,MnHCO3{+}/MnHCO3_aq,MnCO3/MnCO3_aq,MnSO4/MnSO4_aq,MnCl{+}/MnCl_aq,TMn_dis,Mn_ads_Mn,Mn_ads_Fe,TMn_ads,TMn_ads_MnO2,TMn_ads_FeOOH</t>
   </si>
   <si>
     <t>TMn</t>
@@ -218,7 +218,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>TFe,Fe{2+}/Fe_free,Fe_ads_Mn,Fe_ads_Fe</t>
+    <t>TFe,Fe{2+}/Fe_aq,Fe(OH){+}/Fe_OH_aq,Fe(OH)[2]/Fe_OH_2_aq,FeHCO3{+}/FeHCO3_aq,(FeCO3)/FeCO3_aq,Fe(CO3)[2]{2-}/Fe_CO3_2_aq,FeSO4/FeSO4_aq,FeCl{+}/FeCl_aq,(FeS)[1]/FeS_aq,TFe_dis,Fe_ads_Mn,Fe_ads_Fe,TFe_ads,TFe_ads_MnO2,TFe_ads_FeOOH</t>
   </si>
   <si>
     <t>TFe</t>
@@ -359,7 +359,7 @@
     <t>rAlSi</t>
   </si>
   <si>
-    <t>Al,Al{3+}/Al_free</t>
+    <t>Al,Al{3+}/Al_aq,Al(OH){2+}/Al_OH_aq,Al(OH)[2]{+}/Al_OH_2_aq,Al(OH)[3]/Al_OH_3_aq,Al(OH)[4]{-}/Al_OH_4_aq,Al_dis</t>
   </si>
   <si>
     <t>RMnRe_Ndnr</t>
@@ -371,7 +371,7 @@
     <t>Ndnr</t>
   </si>
   <si>
-    <t>TNdnr,Ndnr{3+}/Ndnr_free,Ndnr,Ndnr_ads_Mn,Ndnr_ads_Fe</t>
+    <t>TNdnr,Ndnr{3+}/Ndnr_aq,NdnrCO3{+}/NdnrCO3_aq,Ndnr(CO3)[2]{-}/Ndnr_CO3_2_aq,NdnrHCO3{2+}/NdnrHCO3_aq,NdnrCl{2+}/NdnrCl_aq,NdnrSO4{+}/NdnrSO4_aq,NdnrOH{2+}/NdnrOH_aq,NdnrH3SiO4{2+}/NdnrH3SiO4_aq,Ndnr(H3SiO4)[2]{+}/Ndnr_H3SiO4_2_aq,TNdnr_dis,Ndnr_ads_Mn,Ndnr_ads_Fe,TNdnr_ads,TNdnr_ads_MnO2,TNdnr_ads_FeOOH</t>
   </si>
   <si>
     <t>TNdnr</t>
@@ -386,7 +386,7 @@
     <t>Ndr</t>
   </si>
   <si>
-    <t>TNdr,Ndr{3+}/Ndr_free,Ndr,Ndr_ads_Mn,Ndr_ads_Fe</t>
+    <t>TNdr,Ndr{3+}/Ndr_aq,NdrCO3{+}/NdrCO3_aq,Ndr(CO3)[2]{-}/Ndr_CO3_2_aq,NdrHCO3{2+}/NdrHCO3_aq,NdrCl{2+}/NdrCl_aq,NdrSO4{+}/NdrSO4_aq,NdrOH{2+}/NdrOH_aq,NdrH3SiO4{2+}/NdrH3SiO4_aq,Ndr(H3SiO4)[2]{+}/Ndr_H3SiO4_2_aq,TNdr_dis,Ndr_ads_Mn,Ndr_ads_Fe,TNdr_ads,TNdr_ads_MnO2,TNdr_ads_FeOOH</t>
   </si>
   <si>
     <t>TNdr</t>
@@ -629,7 +629,7 @@
     <t>dependence</t>
   </si>
   <si>
-    <t>H,TCO2,TH2S,TH4SiO4,TH3PO4,TFe,FeOOH,MnO2,TNdnr,TNdr,TNH4,TMn,SO4,Al,Ca,O2,Age,POC,NO2,NO3,FeS,CH4,CaCO3,NdnrPO4,NdrPO4,Illite,Basalt</t>
+    <t>H,TCO2,TH2S,TH4SiO4,TH3PO4,TMn,FeOOH,MnO2,TFe,Al,TNdnr,TNdr,SO4,TNH4,Ca,NdnrPO4,NdrPO4,O2,Age,POC,NO2,NO3,FeS,CH4,CaCO3,Illite,Basalt</t>
   </si>
   <si>
     <t>H,TCO2,TH2S,TFe,FeOOH,MnO2,SO4,O2,FeS</t>
@@ -641,10 +641,10 @@
     <t>H,TCO2,TH2S,TFe,FeOOH,MnO2,SO4,NO3,NO2,O2,Age,POC,CH4,FeS</t>
   </si>
   <si>
-    <t>H,TCO2,TH4SiO4,TH3PO4,TNdnr,FeOOH,MnO2,TMn,TFe,Al,SO4,NO3,NO2,O2,Age,POC,TH2S,Basalt,SurfMn_Ndnr,SurfFe_Ndnr,NdnrPO4,NdrPO4</t>
-  </si>
-  <si>
-    <t>H,TCO2,TH4SiO4,TH3PO4,TNdr,FeOOH,MnO2,TMn,TFe,Al,SO4,NO3,NO2,O2,Age,POC,TH2S,Basalt,SurfMn_Ndr,SurfFe_Ndr,NdrPO4,NdnrPO4</t>
+    <t>H,TCO2,TH4SiO4,TH3PO4,TMn,FeOOH,MnO2,TFe,Al,TNdnr,SO4,NdnrPO4,NdrPO4,NO3,NO2,O2,Age,POC,TH2S,Basalt,SurfMn_Ndnr,SurfFe_Ndnr</t>
+  </si>
+  <si>
+    <t>H,TCO2,TH4SiO4,TH3PO4,TMn,FeOOH,MnO2,TFe,Al,TNdr,SO4,NdrPO4,NdnrPO4,NO3,NO2,O2,Age,POC,TH2S,Basalt,SurfMn_Ndr,SurfFe_Ndr</t>
   </si>
   <si>
     <t>H,TH4SiO4,Al,Basalt</t>
@@ -656,7 +656,7 @@
     <t>H,TH4SiO4,Al,Illite</t>
   </si>
   <si>
-    <t>H,TCO2,TH4SiO4,TH3PO4,TNdnr,FeOOH,MnO2,TNdr,SO4,O2,Age,POC,NO2,NO3,NdnrPO4,NdrPO4</t>
+    <t>H,TCO2,TH4SiO4,TH3PO4,TNdnr,FeOOH,MnO2,TNdr,SO4,NdnrPO4,NdrPO4,O2,Age,POC,NO2,NO3</t>
   </si>
   <si>
     <t>H,TCO2,TH4SiO4,TH3PO4,TNdnr,FeOOH,MnO2,SO4,NdnrPO4,NdrPO4</t>
@@ -677,13 +677,19 @@
     <t>TMn,FeOOH,MnO2,TFe,TNdr,NO3,NO2,O2,Age,POC,TH2S,SurfMn_Ndr</t>
   </si>
   <si>
+    <t>TMn,FeOOH,MnO2,TFe,TNH4,O2,Age,POC,NO2,TH2S,FeS,CH4</t>
+  </si>
+  <si>
+    <t>TMn,FeOOH,MnO2,TFe,NO3,NO2,O2,Age,POC,TH2S</t>
+  </si>
+  <si>
     <t>TFe,FeOOH,MnO2,TNdnr,NO3,NO2,O2,Age,POC,TH2S,SurfFe_Ndnr</t>
   </si>
   <si>
     <t>TFe,FeOOH,MnO2,TNdr,NO3,NO2,O2,Age,POC,TH2S,SurfFe_Ndr</t>
   </si>
   <si>
-    <t>TNH4,TMn,FeOOH,MnO2,TFe,O2,Age,POC,NO2,TH2S,FeS,CH4</t>
+    <t>TFe,FeOOH,MnO2,NO3,NO2,O2,Age,POC,FeS,TH2S</t>
   </si>
   <si>
     <t>TNH4,O2,Age,POC,NO2,NO3,MnO2,FeOOH,SO4</t>
@@ -692,12 +698,6 @@
     <t>TNH4,NO2,O2,Age,POC,NO3</t>
   </si>
   <si>
-    <t>TMn,FeOOH,MnO2,TFe,NO3,NO2,O2,Age,POC,TH2S</t>
-  </si>
-  <si>
-    <t>TFe,FeOOH,MnO2,NO3,NO2,O2,Age,POC,FeS,TH2S</t>
-  </si>
-  <si>
     <t>TH4SiO4,BSi</t>
   </si>
   <si>
@@ -893,9 +893,6 @@
     <t>AmCa</t>
   </si>
   <si>
-    <t>AmAl</t>
-  </si>
-  <si>
     <t>AmSO4</t>
   </si>
   <si>
@@ -941,46 +938,49 @@
     <t>AmOH</t>
   </si>
   <si>
-    <t>AmMn</t>
-  </si>
-  <si>
-    <t>AmMn_ads_Fe</t>
-  </si>
-  <si>
-    <t>AmMn_ads_Mn</t>
-  </si>
-  <si>
-    <t>AmFe</t>
-  </si>
-  <si>
-    <t>AmFe_ads_Fe</t>
-  </si>
-  <si>
-    <t>AmFe_ads_Mn</t>
-  </si>
-  <si>
-    <t>AmNH4</t>
-  </si>
-  <si>
-    <t>AmNH4_ads</t>
-  </si>
-  <si>
-    <t>AmNdnr</t>
-  </si>
-  <si>
-    <t>AmNdnr_ads_Fe</t>
-  </si>
-  <si>
-    <t>AmNdnr_ads_Mn</t>
-  </si>
-  <si>
-    <t>AmNdr</t>
-  </si>
-  <si>
-    <t>AmNdr_ads_Fe</t>
-  </si>
-  <si>
-    <t>AmNdr_ads_Mn</t>
+    <t>AmTMn_dis</t>
+  </si>
+  <si>
+    <t>AmTMn_ads_MnO2</t>
+  </si>
+  <si>
+    <t>AmTMn_ads_FeOOH</t>
+  </si>
+  <si>
+    <t>AmTFe_dis</t>
+  </si>
+  <si>
+    <t>AmTFe_ads_MnO2</t>
+  </si>
+  <si>
+    <t>AmTFe_ads_FeOOH</t>
+  </si>
+  <si>
+    <t>AmAl_dis</t>
+  </si>
+  <si>
+    <t>AmTNH4_dis</t>
+  </si>
+  <si>
+    <t>AmTNH4_ads_nsf</t>
+  </si>
+  <si>
+    <t>AmTNdnr_dis</t>
+  </si>
+  <si>
+    <t>AmTNdnr_ads_MnO2</t>
+  </si>
+  <si>
+    <t>AmTNdnr_ads_FeOOH</t>
+  </si>
+  <si>
+    <t>AmTNdr_dis</t>
+  </si>
+  <si>
+    <t>AmTNdr_ads_MnO2</t>
+  </si>
+  <si>
+    <t>AmTNdr_ads_FeOOH</t>
   </si>
   <si>
     <t>BcAmMnO2</t>
@@ -1112,12 +1112,6 @@
     <t>BcCmCa</t>
   </si>
   <si>
-    <t>BcAmAl</t>
-  </si>
-  <si>
-    <t>BcCmAl</t>
-  </si>
-  <si>
     <t>BcAmSO4</t>
   </si>
   <si>
@@ -1211,88 +1205,94 @@
     <t>BcCmOH</t>
   </si>
   <si>
-    <t>BcAmMn</t>
-  </si>
-  <si>
-    <t>BcCmMn</t>
-  </si>
-  <si>
-    <t>BcAmMn_ads_Fe</t>
-  </si>
-  <si>
-    <t>BcCmMn_ads_Fe</t>
-  </si>
-  <si>
-    <t>BcAmMn_ads_Mn</t>
-  </si>
-  <si>
-    <t>BcCmMn_ads_Mn</t>
-  </si>
-  <si>
-    <t>BcAmFe</t>
-  </si>
-  <si>
-    <t>BcCmFe</t>
-  </si>
-  <si>
-    <t>BcAmFe_ads_Fe</t>
-  </si>
-  <si>
-    <t>BcCmFe_ads_Fe</t>
-  </si>
-  <si>
-    <t>BcAmFe_ads_Mn</t>
-  </si>
-  <si>
-    <t>BcCmFe_ads_Mn</t>
-  </si>
-  <si>
-    <t>BcAmNH4</t>
-  </si>
-  <si>
-    <t>BcCmNH4</t>
-  </si>
-  <si>
-    <t>BcAmNH4_ads</t>
-  </si>
-  <si>
-    <t>BcCmNH4_ads</t>
-  </si>
-  <si>
-    <t>BcAmNdnr</t>
-  </si>
-  <si>
-    <t>BcCmNdnr</t>
-  </si>
-  <si>
-    <t>BcAmNdnr_ads_Fe</t>
-  </si>
-  <si>
-    <t>BcCmNdnr_ads_Fe</t>
-  </si>
-  <si>
-    <t>BcAmNdnr_ads_Mn</t>
-  </si>
-  <si>
-    <t>BcCmNdnr_ads_Mn</t>
-  </si>
-  <si>
-    <t>BcAmNdr</t>
-  </si>
-  <si>
-    <t>BcCmNdr</t>
-  </si>
-  <si>
-    <t>BcAmNdr_ads_Fe</t>
-  </si>
-  <si>
-    <t>BcCmNdr_ads_Fe</t>
-  </si>
-  <si>
-    <t>BcAmNdr_ads_Mn</t>
-  </si>
-  <si>
-    <t>BcCmNdr_ads_Mn</t>
+    <t>BcAmTMn_dis</t>
+  </si>
+  <si>
+    <t>BcCmTMn_dis</t>
+  </si>
+  <si>
+    <t>BcAmTMn_ads_MnO2</t>
+  </si>
+  <si>
+    <t>BcCmTMn_ads_MnO2</t>
+  </si>
+  <si>
+    <t>BcAmTMn_ads_FeOOH</t>
+  </si>
+  <si>
+    <t>BcCmTMn_ads_FeOOH</t>
+  </si>
+  <si>
+    <t>BcAmTFe_dis</t>
+  </si>
+  <si>
+    <t>BcCmTFe_dis</t>
+  </si>
+  <si>
+    <t>BcAmTFe_ads_MnO2</t>
+  </si>
+  <si>
+    <t>BcCmTFe_ads_MnO2</t>
+  </si>
+  <si>
+    <t>BcAmTFe_ads_FeOOH</t>
+  </si>
+  <si>
+    <t>BcCmTFe_ads_FeOOH</t>
+  </si>
+  <si>
+    <t>BcAmAl_dis</t>
+  </si>
+  <si>
+    <t>BcCmAl_dis</t>
+  </si>
+  <si>
+    <t>BcAmTNH4_dis</t>
+  </si>
+  <si>
+    <t>BcCmTNH4_dis</t>
+  </si>
+  <si>
+    <t>BcAmTNH4_ads_nsf</t>
+  </si>
+  <si>
+    <t>BcCmTNH4_ads_nsf</t>
+  </si>
+  <si>
+    <t>BcAmTNdnr_dis</t>
+  </si>
+  <si>
+    <t>BcCmTNdnr_dis</t>
+  </si>
+  <si>
+    <t>BcAmTNdnr_ads_MnO2</t>
+  </si>
+  <si>
+    <t>BcCmTNdnr_ads_MnO2</t>
+  </si>
+  <si>
+    <t>BcAmTNdnr_ads_FeOOH</t>
+  </si>
+  <si>
+    <t>BcCmTNdnr_ads_FeOOH</t>
+  </si>
+  <si>
+    <t>BcAmTNdr_dis</t>
+  </si>
+  <si>
+    <t>BcCmTNdr_dis</t>
+  </si>
+  <si>
+    <t>BcAmTNdr_ads_MnO2</t>
+  </si>
+  <si>
+    <t>BcCmTNdr_ads_MnO2</t>
+  </si>
+  <si>
+    <t>BcAmTNdr_ads_FeOOH</t>
+  </si>
+  <si>
+    <t>BcCmTNdr_ads_FeOOH</t>
   </si>
   <si>
     <t>alpha</t>
@@ -1316,9 +1316,6 @@
     <t>CaBW</t>
   </si>
   <si>
-    <t>AlBW</t>
-  </si>
-  <si>
     <t>SO4BW</t>
   </si>
   <si>
@@ -1364,109 +1361,112 @@
     <t>OHBW</t>
   </si>
   <si>
-    <t>Mn0</t>
-  </si>
-  <si>
-    <t>Fe0</t>
-  </si>
-  <si>
-    <t>NH40</t>
-  </si>
-  <si>
-    <t>Ndnr0</t>
-  </si>
-  <si>
-    <t>Ndr0</t>
+    <t>TMn_dis0</t>
+  </si>
+  <si>
+    <t>TFe_dis0</t>
+  </si>
+  <si>
+    <t>Al_dis0</t>
+  </si>
+  <si>
+    <t>TNH4_dis0</t>
+  </si>
+  <si>
+    <t>TNdnr_dis0</t>
+  </si>
+  <si>
+    <t>TNdr_dis0</t>
+  </si>
+  <si>
+    <t>dstopw</t>
+  </si>
+  <si>
+    <t>adsorption</t>
+  </si>
+  <si>
+    <t>KCO2</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>KHCO3</t>
+  </si>
+  <si>
+    <t>KH2S</t>
+  </si>
+  <si>
+    <t>KH3BO3</t>
+  </si>
+  <si>
+    <t>KH3PO4</t>
+  </si>
+  <si>
+    <t>KH2PO4</t>
+  </si>
+  <si>
+    <t>KHPO4</t>
+  </si>
+  <si>
+    <t>KH2O</t>
+  </si>
+  <si>
+    <t>KH4SiO4</t>
   </si>
   <si>
     <t>KMn_ads_Fe</t>
   </si>
   <si>
-    <t>adsorption</t>
-  </si>
-  <si>
-    <t>dstopw</t>
+    <t>speciation</t>
+  </si>
+  <si>
+    <t>TMn_dis,Mn_ads_Fe</t>
+  </si>
+  <si>
+    <t>TMn_dis,TFe_dis,TNH4_dis,TNdnr_dis,TNdr_dis</t>
   </si>
   <si>
     <t>KMn_ads_Mn</t>
   </si>
   <si>
+    <t>TMn_dis,Mn_ads_Mn</t>
+  </si>
+  <si>
+    <t>Cl</t>
+  </si>
+  <si>
+    <t>Mn_aq,Mn_OH_aq,Mn_OH_2_aq,MnHCO3_aq,MnCO3_aq,MnSO4_aq,MnCl_aq,Fe_aq,Fe_OH_aq,Fe_OH_2_aq,FeHCO3_aq,FeCO3_aq,Fe_CO3_2_aq,FeSO4_aq,FeCl_aq,FeS_aq,Ndnr_aq,NdnrCO3_aq,Ndnr_CO3_2_aq,NdnrHCO3_aq,NdnrCl_aq,NdnrSO4_aq,NdnrOH_aq,NdnrH3SiO4_aq,Ndnr_H3SiO4_2_aq,Ndr_aq,NdrCO3_aq,Ndr_CO3_2_aq,NdrHCO3_aq,NdrCl_aq,NdrSO4_aq,NdrOH_aq,NdrH3SiO4_aq,Ndr_H3SiO4_2_aq</t>
+  </si>
+  <si>
     <t>KFe_ads_Fe</t>
   </si>
   <si>
+    <t>TFe_dis,Fe_ads_Fe</t>
+  </si>
+  <si>
     <t>KFe_ads_Mn</t>
   </si>
   <si>
+    <t>TFe_dis,Fe_ads_Mn</t>
+  </si>
+  <si>
     <t>KNH4_ads</t>
   </si>
   <si>
+    <t>TNH4_dis,NH4_ads</t>
+  </si>
+  <si>
     <t>KNd_ads_Fe</t>
   </si>
   <si>
+    <t>TNdnr_dis,Ndnr_ads_Fe,TNdr_dis,Ndr_ads_Fe</t>
+  </si>
+  <si>
     <t>KNd_ads_Mn</t>
   </si>
   <si>
-    <t>KCO2</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>KHCO3</t>
-  </si>
-  <si>
-    <t>KH2S</t>
-  </si>
-  <si>
-    <t>KH3BO3</t>
-  </si>
-  <si>
-    <t>KH3PO4</t>
-  </si>
-  <si>
-    <t>KH2PO4</t>
-  </si>
-  <si>
-    <t>KHPO4</t>
-  </si>
-  <si>
-    <t>KH2O</t>
-  </si>
-  <si>
-    <t>KH4SiO4</t>
-  </si>
-  <si>
-    <t>Cl</t>
-  </si>
-  <si>
-    <t>speciation</t>
-  </si>
-  <si>
-    <t>Fe_free,Fe_OH_aq,Fe_OH_2_aq,FeHCO3_aq,FeCO3_aq,Fe_CO3_2_aq,FeSO4_aq,FeCl_aq,FeS_aq,Ndnr_free,NdnrCO3_aq,Ndnr_CO3_2_aq,NdnrHCO3_aq,NdnrCl_aq,NdnrSO4_aq,NdnrOH_aq,NdnrH3SiO4_aq,Ndnr_H3SiO4_2_aq,Ndr_free,NdrCO3_aq,Ndr_CO3_2_aq,NdrHCO3_aq,NdrCl_aq,NdrSO4_aq,NdrOH_aq,NdrH3SiO4_aq,Ndr_H3SiO4_2_aq,Mn_free,Mn_OH_aq,Mn_OH_2_aq,MnHCO3_aq,MnCO3_aq,MnSO4_aq,MnCl_aq</t>
-  </si>
-  <si>
-    <t>Mn,Mn_ads_Fe</t>
-  </si>
-  <si>
-    <t>Mn,Fe,NH4,Ndnr,Ndr</t>
-  </si>
-  <si>
-    <t>Mn,Mn_ads_Mn</t>
-  </si>
-  <si>
-    <t>Fe,Fe_ads_Fe</t>
-  </si>
-  <si>
-    <t>Fe,Fe_ads_Mn</t>
-  </si>
-  <si>
-    <t>NH4,NH4_ads</t>
-  </si>
-  <si>
-    <t>Ndnr,Ndnr_ads_Fe,Ndr,Ndr_ads_Fe</t>
-  </si>
-  <si>
-    <t>Ndnr,Ndnr_ads_Mn,Ndr,Ndr_ads_Mn</t>
+    <t>TNdnr_dis,Ndnr_ads_Mn,TNdr_dis,Ndr_ads_Mn</t>
   </si>
   <si>
     <t>KspFeS</t>
@@ -1490,6 +1490,12 @@
     <t>Omega_RBSi_dis</t>
   </si>
   <si>
+    <t>KspNdPO4</t>
+  </si>
+  <si>
+    <t>Omega_RNdnrPO4_pre,Omega_RNdrPO4_pre</t>
+  </si>
+  <si>
     <t>KspBasalt</t>
   </si>
   <si>
@@ -1647,9 +1653,6 @@
   </si>
   <si>
     <t>RNdnrPO4_pre,RNdrPO4_pre</t>
-  </si>
-  <si>
-    <t>KspNdPO4</t>
   </si>
   <si>
     <t>kIllite</t>
@@ -6293,13 +6296,13 @@
         <v>107</v>
       </c>
       <c r="I119" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J119">
         <v>24</v>
       </c>
       <c r="K119" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L119" t="s">
         <v>19</v>
@@ -7121,13 +7124,13 @@
         <v>107</v>
       </c>
       <c r="I142" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J142">
         <v>24</v>
       </c>
       <c r="K142" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L142" t="s">
         <v>21</v>
@@ -7373,13 +7376,13 @@
         <v>107</v>
       </c>
       <c r="I149" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J149">
         <v>24</v>
       </c>
       <c r="K149" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L149" t="s">
         <v>19</v>
@@ -11599,7 +11602,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>215</v>
@@ -11607,7 +11610,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
         <v>216</v>
@@ -11615,39 +11618,39 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="B23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="B24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
         <v>220</v>
@@ -11655,7 +11658,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
         <v>221</v>
@@ -11716,7 +11719,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:B233"/>
+  <dimension ref="A1:B226"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -13463,63 +13466,63 @@
         <v>451</v>
       </c>
       <c r="B218" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
+        <v>453</v>
+      </c>
+      <c r="B219" t="s">
         <v>452</v>
-      </c>
-      <c r="B219" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B220" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B221" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B222" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B223" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B224" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B225" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -13527,63 +13530,7 @@
         <v>460</v>
       </c>
       <c r="B226" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227" t="s">
-        <v>461</v>
-      </c>
-      <c r="B227" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="A228" t="s">
-        <v>462</v>
-      </c>
-      <c r="B228" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229" t="s">
-        <v>463</v>
-      </c>
-      <c r="B229" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230" t="s">
-        <v>464</v>
-      </c>
-      <c r="B230" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231" t="s">
-        <v>465</v>
-      </c>
-      <c r="B231" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232" t="s">
-        <v>466</v>
-      </c>
-      <c r="B232" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233" t="s">
-        <v>467</v>
-      </c>
-      <c r="B233" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -13612,13 +13559,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B2" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C2" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -13626,84 +13573,84 @@
         <v>449</v>
       </c>
       <c r="B3" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="C3" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="B4" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="C4" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="B5" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="C5" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="B6" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="C6" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="B7" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="C7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="B8" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="C8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="B9" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="C9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="B10" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="C10" t="s">
         <v>478</v>
@@ -13755,10 +13702,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="B15" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="C15" t="s">
         <v>489</v>
@@ -13766,32 +13713,32 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>449</v>
       </c>
       <c r="B16" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C16" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C17" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>492</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C18" t="s">
         <v>493</v>
@@ -13799,43 +13746,43 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>494</v>
       </c>
       <c r="B19" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C19" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C20" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B21" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C21" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>497</v>
+        <v>150</v>
       </c>
       <c r="B22" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C22" t="s">
         <v>498</v>
@@ -13846,32 +13793,32 @@
         <v>499</v>
       </c>
       <c r="B23" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C23" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>501</v>
+      </c>
+      <c r="B24" t="s">
+        <v>490</v>
+      </c>
+      <c r="C24" t="s">
         <v>500</v>
-      </c>
-      <c r="B24" t="s">
-        <v>488</v>
-      </c>
-      <c r="C24" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B25" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C25" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -13879,7 +13826,7 @@
         <v>503</v>
       </c>
       <c r="B26" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C26" t="s">
         <v>504</v>
@@ -13890,7 +13837,7 @@
         <v>505</v>
       </c>
       <c r="B27" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C27" t="s">
         <v>506</v>
@@ -13901,7 +13848,7 @@
         <v>507</v>
       </c>
       <c r="B28" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C28" t="s">
         <v>508</v>
@@ -13912,7 +13859,7 @@
         <v>509</v>
       </c>
       <c r="B29" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C29" t="s">
         <v>510</v>
@@ -13923,128 +13870,128 @@
         <v>511</v>
       </c>
       <c r="B30" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>512</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B31" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B32" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B33" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B34" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B35" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B36" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B37" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B38" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B39" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B40" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B41" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C41" t="s">
         <v>88</v>
@@ -14052,87 +13999,87 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B42" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B43" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B44" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B45" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B46" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B47" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B48" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B49" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C49" t="s">
         <v>97</v>
@@ -14140,10 +14087,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B50" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C50" t="s">
         <v>97</v>
@@ -14151,24 +14098,24 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B51" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B52" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C52" t="s">
-        <v>534</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -14176,7 +14123,7 @@
         <v>535</v>
       </c>
       <c r="B53" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C53" t="s">
         <v>536</v>
@@ -14187,7 +14134,7 @@
         <v>537</v>
       </c>
       <c r="B54" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C54" t="s">
         <v>538</v>
@@ -14198,18 +14145,18 @@
         <v>539</v>
       </c>
       <c r="B55" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C55" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B56" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C56" t="s">
         <v>135</v>
@@ -14217,10 +14164,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B57" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C57" t="s">
         <v>135</v>
@@ -14228,10 +14175,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B58" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C58" t="s">
         <v>142</v>
@@ -14239,10 +14186,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B59" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C59" t="s">
         <v>142</v>

--- a/examples/OregonNd/model_parsing_diagnostics.OregonNd.xlsx
+++ b/examples/OregonNd/model_parsing_diagnostics.OregonNd.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="544">
   <si>
     <t>label</t>
   </si>
@@ -107,7 +107,7 @@
     <t>+1</t>
   </si>
   <si>
-    <t>H,H,OH</t>
+    <t>H,H{+},OH{-}</t>
   </si>
   <si>
     <t>dissolved_summed_pH</t>
@@ -122,7 +122,7 @@
     <t>product</t>
   </si>
   <si>
-    <t>TCO2,HCO3,CO3,CO2</t>
+    <t>TCO2,HCO3{-},CO3{2-},CO2</t>
   </si>
   <si>
     <t>TCO2</t>
@@ -149,7 +149,7 @@
     <t>rPC</t>
   </si>
   <si>
-    <t>TH3PO4,H3PO4,H2PO4,HPO4,PO4</t>
+    <t>TH3PO4,H3PO4,H2PO4{-},HPO4{2-},PO4{3-}</t>
   </si>
   <si>
     <t>TH3PO4</t>
@@ -242,7 +242,7 @@
     <t>1/2</t>
   </si>
   <si>
-    <t>TH2S,H2S,HS</t>
+    <t>TH2S,H2S,HS{-}</t>
   </si>
   <si>
     <t>TH2S</t>
@@ -344,7 +344,7 @@
     <t>H4SiO4</t>
   </si>
   <si>
-    <t>TH4SiO4,H4SiO4,H3SiO4</t>
+    <t>TH4SiO4,H4SiO4,H3SiO4{-}</t>
   </si>
   <si>
     <t>TH4SiO4</t>
@@ -497,7 +497,7 @@
     <t>modelled but not in chemical equation</t>
   </si>
   <si>
-    <t>TH3BO3,H3BO3,H4BO4</t>
+    <t>TH3BO3,H3BO3,H4BO4{-}</t>
   </si>
   <si>
     <t>H2O</t>
@@ -629,7 +629,7 @@
     <t>dependence</t>
   </si>
   <si>
-    <t>H,TCO2,TH2S,TH4SiO4,TH3PO4,TMn,FeOOH,MnO2,TFe,Al,TNdnr,TNdr,SO4,TNH4,Ca,NdnrPO4,NdrPO4,O2,Age,POC,NO2,NO3,FeS,CH4,CaCO3,Illite,Basalt</t>
+    <t>H,TCO2,TH2S,TH4SiO4,TH3PO4,TMn,FeOOH,MnO2,TFe,Al,TNdnr,TNdr,SO4,TNH4,Ca,O2,Age,POC,NO2,NO3,FeS,CH4,CaCO3,NdnrPO4,NdrPO4,Illite,Basalt</t>
   </si>
   <si>
     <t>H,TCO2,TH2S,TFe,FeOOH,MnO2,SO4,O2,FeS</t>
@@ -641,10 +641,10 @@
     <t>H,TCO2,TH2S,TFe,FeOOH,MnO2,SO4,NO3,NO2,O2,Age,POC,CH4,FeS</t>
   </si>
   <si>
-    <t>H,TCO2,TH4SiO4,TH3PO4,TMn,FeOOH,MnO2,TFe,Al,TNdnr,SO4,NdnrPO4,NdrPO4,NO3,NO2,O2,Age,POC,TH2S,Basalt,SurfMn_Ndnr,SurfFe_Ndnr</t>
-  </si>
-  <si>
-    <t>H,TCO2,TH4SiO4,TH3PO4,TMn,FeOOH,MnO2,TFe,Al,TNdr,SO4,NdrPO4,NdnrPO4,NO3,NO2,O2,Age,POC,TH2S,Basalt,SurfMn_Ndr,SurfFe_Ndr</t>
+    <t>H,TCO2,TH4SiO4,TH3PO4,TMn,FeOOH,MnO2,TFe,Al,TNdnr,SO4,NO3,NO2,O2,Age,POC,TH2S,Basalt,SurfMn_Ndnr,SurfFe_Ndnr,NdnrPO4,NdrPO4</t>
+  </si>
+  <si>
+    <t>H,TCO2,TH4SiO4,TH3PO4,TMn,FeOOH,MnO2,TFe,Al,TNdr,SO4,NO3,NO2,O2,Age,POC,TH2S,Basalt,SurfMn_Ndr,SurfFe_Ndr,NdrPO4,NdnrPO4</t>
   </si>
   <si>
     <t>H,TH4SiO4,Al,Basalt</t>
@@ -656,7 +656,7 @@
     <t>H,TH4SiO4,Al,Illite</t>
   </si>
   <si>
-    <t>H,TCO2,TH4SiO4,TH3PO4,TNdnr,FeOOH,MnO2,TNdr,SO4,NdnrPO4,NdrPO4,O2,Age,POC,NO2,NO3</t>
+    <t>H,TCO2,TH4SiO4,TH3PO4,TNdnr,FeOOH,MnO2,TNdr,SO4,O2,Age,POC,NO2,NO3,NdnrPO4,NdrPO4</t>
   </si>
   <si>
     <t>H,TCO2,TH4SiO4,TH3PO4,TNdnr,FeOOH,MnO2,SO4,NdnrPO4,NdrPO4</t>
@@ -1490,169 +1490,166 @@
     <t>Omega_RBSi_dis</t>
   </si>
   <si>
+    <t>KspBasalt</t>
+  </si>
+  <si>
+    <t>Omega_RBasalt_dis</t>
+  </si>
+  <si>
+    <t>reaction rate</t>
+  </si>
+  <si>
+    <t>S_O2,S_TCO2,S_TNH4,S_TH3PO4,S_NO2,S_NO3,S_TMn,S_TFe,S_SO4,S_TH2S,S_CH4,S_Ca,S_TH4SiO4,S_Al,S_TNdnr,S_TNdr,S_TA,S_TA,S_TA,RO2Mn_ads,RO2Fe_ads,RFeOx_Ndnr,RFeOx_Ndr,RIllite_pre,RBasalt_dis_Nd</t>
+  </si>
+  <si>
+    <t>S_TNH4,S_TA</t>
+  </si>
+  <si>
+    <t>S_TH3PO4,S_TA</t>
+  </si>
+  <si>
+    <t>pwtods</t>
+  </si>
+  <si>
+    <t>S_MnO2,S_FeOOH,S_FeS,S_SurfMn_Ndnr,S_SurfMn_Ndr,S_SurfFe_Ndnr,S_SurfFe_Ndr,S_NdnrPO4,S_NdrPO4,S_Illite</t>
+  </si>
+  <si>
+    <t>S_Al</t>
+  </si>
+  <si>
+    <t>S_TNdnr</t>
+  </si>
+  <si>
+    <t>S_TNdr</t>
+  </si>
+  <si>
+    <t>KO2</t>
+  </si>
+  <si>
+    <t>RO2POC,RNO2POC,RNO3POC,RMnO2POC,RFeOOHPOC,RSO4POC,RCH4POC</t>
+  </si>
+  <si>
+    <t>nu</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>KNO2</t>
+  </si>
+  <si>
+    <t>RNO2POC,RNO3POC,RMnO2POC,RFeOOHPOC,RSO4POC,RCH4POC</t>
+  </si>
+  <si>
+    <t>KNO3</t>
+  </si>
+  <si>
+    <t>RNO3POC,RMnO2POC,RFeOOHPOC,RSO4POC,RCH4POC</t>
+  </si>
+  <si>
+    <t>KMnO2</t>
+  </si>
+  <si>
+    <t>RMnO2POC,RFeOOHPOC,RSO4POC,RCH4POC</t>
+  </si>
+  <si>
+    <t>KFeOOH</t>
+  </si>
+  <si>
+    <t>RFeOOHPOC,RSO4POC,RCH4POC</t>
+  </si>
+  <si>
+    <t>KSO4</t>
+  </si>
+  <si>
+    <t>RSO4POC,RCH4POC</t>
+  </si>
+  <si>
+    <t>kO2NO2</t>
+  </si>
+  <si>
+    <t>kO2NH4</t>
+  </si>
+  <si>
+    <t>kO2Mn</t>
+  </si>
+  <si>
+    <t>kO2Mn_ads</t>
+  </si>
+  <si>
+    <t>kO2Fe</t>
+  </si>
+  <si>
+    <t>kO2Fe_ads</t>
+  </si>
+  <si>
+    <t>kO2H2S</t>
+  </si>
+  <si>
+    <t>kO2FeS</t>
+  </si>
+  <si>
+    <t>kO2CH4</t>
+  </si>
+  <si>
+    <t>kNO2NH4</t>
+  </si>
+  <si>
+    <t>kAOM</t>
+  </si>
+  <si>
+    <t>KAOM</t>
+  </si>
+  <si>
+    <t>kMnO2Fe</t>
+  </si>
+  <si>
+    <t>kMnO2H2S</t>
+  </si>
+  <si>
+    <t>kFeOOHH2S</t>
+  </si>
+  <si>
+    <t>kFeSH2S</t>
+  </si>
+  <si>
+    <t>kFeSdis</t>
+  </si>
+  <si>
+    <t>kFeSpre</t>
+  </si>
+  <si>
+    <t>kCaCO3dis0</t>
+  </si>
+  <si>
+    <t>kCaCO3dis1</t>
+  </si>
+  <si>
+    <t>nCaCO3dis</t>
+  </si>
+  <si>
+    <t>kBSi_dis</t>
+  </si>
+  <si>
+    <t>DNdMn</t>
+  </si>
+  <si>
+    <t>RMnOx_Ndnr,RMnOx_Ndr</t>
+  </si>
+  <si>
+    <t>DNdFe</t>
+  </si>
+  <si>
+    <t>RFeOx_Ndnr,RFeOx_Ndr</t>
+  </si>
+  <si>
+    <t>kNdPO4_pre</t>
+  </si>
+  <si>
+    <t>RNdnrPO4_pre,RNdrPO4_pre</t>
+  </si>
+  <si>
     <t>KspNdPO4</t>
-  </si>
-  <si>
-    <t>Omega_RNdnrPO4_pre,Omega_RNdrPO4_pre</t>
-  </si>
-  <si>
-    <t>KspBasalt</t>
-  </si>
-  <si>
-    <t>Omega_RBasalt_dis</t>
-  </si>
-  <si>
-    <t>reaction rate</t>
-  </si>
-  <si>
-    <t>S_O2,S_TCO2,S_TNH4,S_TH3PO4,S_NO2,S_NO3,S_TMn,S_TFe,S_SO4,S_TH2S,S_CH4,S_Ca,S_TH4SiO4,S_Al,S_TNdnr,S_TNdr,S_TA,S_TA,S_TA,RO2Mn_ads,RO2Fe_ads,RFeOx_Ndnr,RFeOx_Ndr,RIllite_pre,RBasalt_dis_Nd</t>
-  </si>
-  <si>
-    <t>S_TNH4,S_TA</t>
-  </si>
-  <si>
-    <t>S_TH3PO4,S_TA</t>
-  </si>
-  <si>
-    <t>pwtods</t>
-  </si>
-  <si>
-    <t>S_MnO2,S_FeOOH,S_FeS,S_SurfMn_Ndnr,S_SurfMn_Ndr,S_SurfFe_Ndnr,S_SurfFe_Ndr,S_NdnrPO4,S_NdrPO4,S_Illite</t>
-  </si>
-  <si>
-    <t>S_Al</t>
-  </si>
-  <si>
-    <t>S_TNdnr</t>
-  </si>
-  <si>
-    <t>S_TNdr</t>
-  </si>
-  <si>
-    <t>KO2</t>
-  </si>
-  <si>
-    <t>RO2POC,RNO2POC,RNO3POC,RMnO2POC,RFeOOHPOC,RSO4POC,RCH4POC</t>
-  </si>
-  <si>
-    <t>nu</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>KNO2</t>
-  </si>
-  <si>
-    <t>RNO2POC,RNO3POC,RMnO2POC,RFeOOHPOC,RSO4POC,RCH4POC</t>
-  </si>
-  <si>
-    <t>KNO3</t>
-  </si>
-  <si>
-    <t>RNO3POC,RMnO2POC,RFeOOHPOC,RSO4POC,RCH4POC</t>
-  </si>
-  <si>
-    <t>KMnO2</t>
-  </si>
-  <si>
-    <t>RMnO2POC,RFeOOHPOC,RSO4POC,RCH4POC</t>
-  </si>
-  <si>
-    <t>KFeOOH</t>
-  </si>
-  <si>
-    <t>RFeOOHPOC,RSO4POC,RCH4POC</t>
-  </si>
-  <si>
-    <t>KSO4</t>
-  </si>
-  <si>
-    <t>RSO4POC,RCH4POC</t>
-  </si>
-  <si>
-    <t>kO2NO2</t>
-  </si>
-  <si>
-    <t>kO2NH4</t>
-  </si>
-  <si>
-    <t>kO2Mn</t>
-  </si>
-  <si>
-    <t>kO2Mn_ads</t>
-  </si>
-  <si>
-    <t>kO2Fe</t>
-  </si>
-  <si>
-    <t>kO2Fe_ads</t>
-  </si>
-  <si>
-    <t>kO2H2S</t>
-  </si>
-  <si>
-    <t>kO2FeS</t>
-  </si>
-  <si>
-    <t>kO2CH4</t>
-  </si>
-  <si>
-    <t>kNO2NH4</t>
-  </si>
-  <si>
-    <t>kAOM</t>
-  </si>
-  <si>
-    <t>KAOM</t>
-  </si>
-  <si>
-    <t>kMnO2Fe</t>
-  </si>
-  <si>
-    <t>kMnO2H2S</t>
-  </si>
-  <si>
-    <t>kFeOOHH2S</t>
-  </si>
-  <si>
-    <t>kFeSH2S</t>
-  </si>
-  <si>
-    <t>kFeSdis</t>
-  </si>
-  <si>
-    <t>kFeSpre</t>
-  </si>
-  <si>
-    <t>kCaCO3dis0</t>
-  </si>
-  <si>
-    <t>kCaCO3dis1</t>
-  </si>
-  <si>
-    <t>nCaCO3dis</t>
-  </si>
-  <si>
-    <t>kBSi_dis</t>
-  </si>
-  <si>
-    <t>DNdMn</t>
-  </si>
-  <si>
-    <t>RMnOx_Ndnr,RMnOx_Ndr</t>
-  </si>
-  <si>
-    <t>DNdFe</t>
-  </si>
-  <si>
-    <t>RFeOx_Ndnr,RFeOx_Ndr</t>
-  </si>
-  <si>
-    <t>kNdPO4_pre</t>
-  </si>
-  <si>
-    <t>RNdnrPO4_pre,RNdrPO4_pre</t>
   </si>
   <si>
     <t>kIllite</t>
@@ -13702,10 +13699,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>449</v>
+      </c>
+      <c r="B15" t="s">
         <v>488</v>
-      </c>
-      <c r="B15" t="s">
-        <v>480</v>
       </c>
       <c r="C15" t="s">
         <v>489</v>
@@ -13713,32 +13710,32 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>449</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
+        <v>488</v>
+      </c>
+      <c r="C16" t="s">
         <v>490</v>
-      </c>
-      <c r="C16" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C17" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>492</v>
       </c>
       <c r="B18" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C18" t="s">
         <v>493</v>
@@ -13746,43 +13743,43 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" t="s">
+        <v>488</v>
+      </c>
+      <c r="C19" t="s">
         <v>494</v>
-      </c>
-      <c r="B19" t="s">
-        <v>490</v>
-      </c>
-      <c r="C19" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C20" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B21" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C21" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>150</v>
+        <v>497</v>
       </c>
       <c r="B22" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C22" t="s">
         <v>498</v>
@@ -13793,32 +13790,32 @@
         <v>499</v>
       </c>
       <c r="B23" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C23" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B24" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C24" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>501</v>
+      </c>
+      <c r="B25" t="s">
+        <v>488</v>
+      </c>
+      <c r="C25" t="s">
         <v>502</v>
-      </c>
-      <c r="B25" t="s">
-        <v>490</v>
-      </c>
-      <c r="C25" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -13826,7 +13823,7 @@
         <v>503</v>
       </c>
       <c r="B26" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C26" t="s">
         <v>504</v>
@@ -13837,7 +13834,7 @@
         <v>505</v>
       </c>
       <c r="B27" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C27" t="s">
         <v>506</v>
@@ -13848,7 +13845,7 @@
         <v>507</v>
       </c>
       <c r="B28" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C28" t="s">
         <v>508</v>
@@ -13859,7 +13856,7 @@
         <v>509</v>
       </c>
       <c r="B29" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C29" t="s">
         <v>510</v>
@@ -13870,128 +13867,128 @@
         <v>511</v>
       </c>
       <c r="B30" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C30" t="s">
-        <v>512</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B31" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B32" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B33" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B34" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B35" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B36" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B37" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B38" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B39" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B40" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B41" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C41" t="s">
         <v>88</v>
@@ -13999,87 +13996,87 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B42" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B43" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B44" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B45" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B46" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B47" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B48" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B49" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C49" t="s">
         <v>97</v>
@@ -14087,10 +14084,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B50" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C50" t="s">
         <v>97</v>
@@ -14098,24 +14095,24 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B51" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C51" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>533</v>
+      </c>
+      <c r="B52" t="s">
+        <v>488</v>
+      </c>
+      <c r="C52" t="s">
         <v>534</v>
-      </c>
-      <c r="B52" t="s">
-        <v>490</v>
-      </c>
-      <c r="C52" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -14123,7 +14120,7 @@
         <v>535</v>
       </c>
       <c r="B53" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C53" t="s">
         <v>536</v>
@@ -14134,7 +14131,7 @@
         <v>537</v>
       </c>
       <c r="B54" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C54" t="s">
         <v>538</v>
@@ -14145,18 +14142,18 @@
         <v>539</v>
       </c>
       <c r="B55" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C55" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B56" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C56" t="s">
         <v>135</v>
@@ -14164,10 +14161,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B57" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C57" t="s">
         <v>135</v>
@@ -14175,10 +14172,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B58" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C58" t="s">
         <v>142</v>
@@ -14186,10 +14183,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B59" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C59" t="s">
         <v>142</v>

--- a/examples/OregonNd/model_parsing_diagnostics.OregonNd.xlsx
+++ b/examples/OregonNd/model_parsing_diagnostics.OregonNd.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="675">
   <si>
     <t>label</t>
   </si>
@@ -1047,7 +1047,7 @@
     <t>dependence</t>
   </si>
   <si>
-    <t>H,TCO2,TH2S,TH4SiO4,TH3PO4,TMn,FeOOH,MnO2,TFe,Al,TNdnr,TNdr,SO4,TNH4,Ca,O2,Age,POC,NO2,NO3,FeS,CH4,CaCO3,BSi,NdnrPO4,NdrPO4,Illite,Basalt</t>
+    <t>H,TCO2,TH2S,TH4SiO4,TH3PO4,TMn,FeOOH,MnO2,TFe,Al,TNdnr,TNdr,SO4,TNH4,Ca,NdnrPO4,NdrPO4,O2,Age,POC,NO2,NO3,FeS,CH4,CaCO3,BSi,Illite,Basalt</t>
   </si>
   <si>
     <t>H,TCO2,TH2S,TFe,FeOOH,MnO2,SO4,O2,FeS</t>
@@ -1059,10 +1059,10 @@
     <t>H,TCO2,TH2S,TFe,FeOOH,MnO2,SO4,NO3,NO2,O2,Age,POC,CH4,FeS</t>
   </si>
   <si>
-    <t>H,TCO2,TH4SiO4,TH3PO4,TMn,FeOOH,MnO2,TFe,Al,TNdnr,SO4,NO3,NO2,O2,Age,POC,TH2S,Basalt,SurfMn_Ndnr,SurfFe_Ndnr,NdnrPO4,NdrPO4</t>
-  </si>
-  <si>
-    <t>H,TCO2,TH4SiO4,TH3PO4,TMn,FeOOH,MnO2,TFe,Al,TNdr,SO4,NO3,NO2,O2,Age,POC,TH2S,Basalt,SurfMn_Ndr,SurfFe_Ndr,NdrPO4,NdnrPO4</t>
+    <t>H,TCO2,TH4SiO4,TH3PO4,TMn,FeOOH,MnO2,TFe,Al,TNdnr,SO4,NdnrPO4,NdrPO4,NO3,NO2,O2,Age,POC,TH2S,Basalt,SurfMn_Ndnr,SurfFe_Ndnr</t>
+  </si>
+  <si>
+    <t>H,TCO2,TH4SiO4,TH3PO4,TMn,FeOOH,MnO2,TFe,Al,TNdr,SO4,NdrPO4,NdnrPO4,NO3,NO2,O2,Age,POC,TH2S,Basalt,SurfMn_Ndr,SurfFe_Ndr</t>
   </si>
   <si>
     <t>H,TH4SiO4,Al,Basalt</t>
@@ -1074,7 +1074,7 @@
     <t>H,TH4SiO4,Al,Illite</t>
   </si>
   <si>
-    <t>H,TCO2,TH4SiO4,TH3PO4,TNdnr,FeOOH,MnO2,TNdr,SO4,O2,Age,POC,NO2,NO3,NdnrPO4,NdrPO4</t>
+    <t>H,TCO2,TH4SiO4,TH3PO4,TNdnr,FeOOH,MnO2,TNdr,SO4,NdnrPO4,NdrPO4,O2,Age,POC,NO2,NO3</t>
   </si>
   <si>
     <t>H,TCO2,TH4SiO4,TH3PO4,TNdnr,FeOOH,MnO2,SO4,NdnrPO4,NdrPO4</t>
@@ -1881,6 +1881,12 @@
     <t>Omega_RBSi_dis</t>
   </si>
   <si>
+    <t>KspNdPO4</t>
+  </si>
+  <si>
+    <t>Omega_RNdnrPO4_pre,Omega_RNdrPO4_pre</t>
+  </si>
+  <si>
     <t>KspBasalt</t>
   </si>
   <si>
@@ -2038,9 +2044,6 @@
   </si>
   <si>
     <t>RNdnrPO4_pre,RNdrPO4_pre</t>
-  </si>
-  <si>
-    <t>KspNdPO4</t>
   </si>
   <si>
     <t>kIllite</t>
@@ -14621,10 +14624,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>579</v>
+        <v>618</v>
       </c>
       <c r="B15" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="C15" t="s">
         <v>619</v>
@@ -14632,32 +14635,32 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>579</v>
       </c>
       <c r="B16" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C16" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C17" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>622</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C18" t="s">
         <v>623</v>
@@ -14665,43 +14668,43 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>624</v>
       </c>
       <c r="B19" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C19" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C20" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B21" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C21" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>627</v>
+        <v>152</v>
       </c>
       <c r="B22" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C22" t="s">
         <v>628</v>
@@ -14712,32 +14715,32 @@
         <v>629</v>
       </c>
       <c r="B23" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C23" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>631</v>
+      </c>
+      <c r="B24" t="s">
+        <v>620</v>
+      </c>
+      <c r="C24" t="s">
         <v>630</v>
-      </c>
-      <c r="B24" t="s">
-        <v>618</v>
-      </c>
-      <c r="C24" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B25" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C25" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -14745,7 +14748,7 @@
         <v>633</v>
       </c>
       <c r="B26" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C26" t="s">
         <v>634</v>
@@ -14756,7 +14759,7 @@
         <v>635</v>
       </c>
       <c r="B27" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C27" t="s">
         <v>636</v>
@@ -14767,7 +14770,7 @@
         <v>637</v>
       </c>
       <c r="B28" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C28" t="s">
         <v>638</v>
@@ -14778,7 +14781,7 @@
         <v>639</v>
       </c>
       <c r="B29" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C29" t="s">
         <v>640</v>
@@ -14789,128 +14792,128 @@
         <v>641</v>
       </c>
       <c r="B30" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>642</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B31" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B32" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B33" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B34" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B35" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B36" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B37" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B38" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B39" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B40" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B41" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C41" t="s">
         <v>91</v>
@@ -14918,87 +14921,87 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B42" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B43" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B44" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B45" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B46" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B47" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C47" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B48" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B49" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C49" t="s">
         <v>100</v>
@@ -15006,10 +15009,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B50" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C50" t="s">
         <v>100</v>
@@ -15017,24 +15020,24 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B51" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B52" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C52" t="s">
-        <v>664</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -15042,7 +15045,7 @@
         <v>665</v>
       </c>
       <c r="B53" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C53" t="s">
         <v>666</v>
@@ -15053,7 +15056,7 @@
         <v>667</v>
       </c>
       <c r="B54" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C54" t="s">
         <v>668</v>
@@ -15064,18 +15067,18 @@
         <v>669</v>
       </c>
       <c r="B55" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C55" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B56" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C56" t="s">
         <v>137</v>
@@ -15083,10 +15086,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B57" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C57" t="s">
         <v>137</v>
@@ -15094,10 +15097,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B58" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C58" t="s">
         <v>144</v>
@@ -15105,10 +15108,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B59" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C59" t="s">
         <v>144</v>

--- a/examples/OregonNd/model_parsing_diagnostics.OregonNd.xlsx
+++ b/examples/OregonNd/model_parsing_diagnostics.OregonNd.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="674">
   <si>
     <t>label</t>
   </si>
@@ -1047,7 +1047,7 @@
     <t>dependence</t>
   </si>
   <si>
-    <t>H,TCO2,TH2S,TH4SiO4,TH3PO4,TMn,FeOOH,MnO2,TFe,Al,TNdnr,TNdr,SO4,TNH4,Ca,NdnrPO4,NdrPO4,O2,Age,POC,NO2,NO3,FeS,CH4,CaCO3,BSi,Illite,Basalt</t>
+    <t>H,TCO2,TH2S,TH4SiO4,TH3PO4,TMn,FeOOH,MnO2,TFe,Al,TNdnr,TNdr,SO4,TNH4,Ca,O2,Age,POC,NO2,NO3,FeS,CH4,CaCO3,BSi,NdnrPO4,NdrPO4,Illite,Basalt</t>
   </si>
   <si>
     <t>H,TCO2,TH2S,TFe,FeOOH,MnO2,SO4,O2,FeS</t>
@@ -1059,10 +1059,10 @@
     <t>H,TCO2,TH2S,TFe,FeOOH,MnO2,SO4,NO3,NO2,O2,Age,POC,CH4,FeS</t>
   </si>
   <si>
-    <t>H,TCO2,TH4SiO4,TH3PO4,TMn,FeOOH,MnO2,TFe,Al,TNdnr,SO4,NdnrPO4,NdrPO4,NO3,NO2,O2,Age,POC,TH2S,Basalt,SurfMn_Ndnr,SurfFe_Ndnr</t>
-  </si>
-  <si>
-    <t>H,TCO2,TH4SiO4,TH3PO4,TMn,FeOOH,MnO2,TFe,Al,TNdr,SO4,NdrPO4,NdnrPO4,NO3,NO2,O2,Age,POC,TH2S,Basalt,SurfMn_Ndr,SurfFe_Ndr</t>
+    <t>H,TCO2,TH4SiO4,TH3PO4,TMn,FeOOH,MnO2,TFe,Al,TNdnr,SO4,NO3,NO2,O2,Age,POC,TH2S,Basalt,SurfMn_Ndnr,SurfFe_Ndnr,NdnrPO4,NdrPO4</t>
+  </si>
+  <si>
+    <t>H,TCO2,TH4SiO4,TH3PO4,TMn,FeOOH,MnO2,TFe,Al,TNdr,SO4,NO3,NO2,O2,Age,POC,TH2S,Basalt,SurfMn_Ndr,SurfFe_Ndr,NdrPO4,NdnrPO4</t>
   </si>
   <si>
     <t>H,TH4SiO4,Al,Basalt</t>
@@ -1074,7 +1074,7 @@
     <t>H,TH4SiO4,Al,Illite</t>
   </si>
   <si>
-    <t>H,TCO2,TH4SiO4,TH3PO4,TNdnr,FeOOH,MnO2,TNdr,SO4,NdnrPO4,NdrPO4,O2,Age,POC,NO2,NO3</t>
+    <t>H,TCO2,TH4SiO4,TH3PO4,TNdnr,FeOOH,MnO2,TNdr,SO4,O2,Age,POC,NO2,NO3,NdnrPO4,NdrPO4</t>
   </si>
   <si>
     <t>H,TCO2,TH4SiO4,TH3PO4,TNdnr,FeOOH,MnO2,SO4,NdnrPO4,NdrPO4</t>
@@ -1881,169 +1881,166 @@
     <t>Omega_RBSi_dis</t>
   </si>
   <si>
+    <t>KspBasalt</t>
+  </si>
+  <si>
+    <t>Omega_RBasalt_dis</t>
+  </si>
+  <si>
+    <t>reaction rate</t>
+  </si>
+  <si>
+    <t>S_O2,S_TCO2,S_TNH4,S_TH3PO4,S_NO2,S_NO3,S_TMn,S_TFe,S_SO4,S_TH2S,S_CH4,S_Ca,S_TH4SiO4,S_Al,S_TNdnr,S_TNdr,S_TA,S_TA,S_TA,RMnOx_Ndnr,RMnOx_Ndr,RFeOx_Ndnr,RFeOx_Ndr,RIllite_pre,RBasalt_dis_Nd</t>
+  </si>
+  <si>
+    <t>S_TNH4,S_TA</t>
+  </si>
+  <si>
+    <t>S_TH3PO4,S_TA</t>
+  </si>
+  <si>
+    <t>pwtods</t>
+  </si>
+  <si>
+    <t>S_MnO2,S_FeOOH,S_FeS,S_SurfMn_Ndnr,S_SurfMn_Ndr,S_SurfFe_Ndnr,S_SurfFe_Ndr,S_NdnrPO4,S_NdrPO4,S_Illite</t>
+  </si>
+  <si>
+    <t>S_Al</t>
+  </si>
+  <si>
+    <t>S_TNdnr</t>
+  </si>
+  <si>
+    <t>S_TNdr</t>
+  </si>
+  <si>
+    <t>KO2</t>
+  </si>
+  <si>
+    <t>RO2POC,RNO2POC,RNO3POC,RMnO2POC,RFeOOHPOC,RSO4POC,RCH4POC</t>
+  </si>
+  <si>
+    <t>nu</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>KNO2</t>
+  </si>
+  <si>
+    <t>RNO2POC,RNO3POC,RMnO2POC,RFeOOHPOC,RSO4POC,RCH4POC</t>
+  </si>
+  <si>
+    <t>KNO3</t>
+  </si>
+  <si>
+    <t>RNO3POC,RMnO2POC,RFeOOHPOC,RSO4POC,RCH4POC</t>
+  </si>
+  <si>
+    <t>KMnO2</t>
+  </si>
+  <si>
+    <t>RMnO2POC,RFeOOHPOC,RSO4POC,RCH4POC</t>
+  </si>
+  <si>
+    <t>KFeOOH</t>
+  </si>
+  <si>
+    <t>RFeOOHPOC,RSO4POC,RCH4POC</t>
+  </si>
+  <si>
+    <t>KSO4</t>
+  </si>
+  <si>
+    <t>RSO4POC,RCH4POC</t>
+  </si>
+  <si>
+    <t>kO2NO2</t>
+  </si>
+  <si>
+    <t>kO2NH4</t>
+  </si>
+  <si>
+    <t>kO2Mn</t>
+  </si>
+  <si>
+    <t>kO2Mn_ads</t>
+  </si>
+  <si>
+    <t>kO2Fe</t>
+  </si>
+  <si>
+    <t>kO2Fe_ads</t>
+  </si>
+  <si>
+    <t>kO2H2S</t>
+  </si>
+  <si>
+    <t>kO2FeS</t>
+  </si>
+  <si>
+    <t>kO2CH4</t>
+  </si>
+  <si>
+    <t>kNO2NH4</t>
+  </si>
+  <si>
+    <t>kAOM</t>
+  </si>
+  <si>
+    <t>KAOM</t>
+  </si>
+  <si>
+    <t>kMnO2Fe</t>
+  </si>
+  <si>
+    <t>kMnO2H2S</t>
+  </si>
+  <si>
+    <t>kFeOOHH2S</t>
+  </si>
+  <si>
+    <t>kFeSH2S</t>
+  </si>
+  <si>
+    <t>kFeSdis</t>
+  </si>
+  <si>
+    <t>kFeSpre</t>
+  </si>
+  <si>
+    <t>kCaCO3dis0</t>
+  </si>
+  <si>
+    <t>kCaCO3dis1</t>
+  </si>
+  <si>
+    <t>nCaCO3dis</t>
+  </si>
+  <si>
+    <t>kBSi_dis</t>
+  </si>
+  <si>
+    <t>DNdMn</t>
+  </si>
+  <si>
+    <t>RMnOx_Ndnr,RMnOx_Ndr</t>
+  </si>
+  <si>
+    <t>DNdFe</t>
+  </si>
+  <si>
+    <t>RFeOx_Ndnr,RFeOx_Ndr</t>
+  </si>
+  <si>
+    <t>kNdPO4_pre</t>
+  </si>
+  <si>
+    <t>RNdnrPO4_pre,RNdrPO4_pre</t>
+  </si>
+  <si>
     <t>KspNdPO4</t>
-  </si>
-  <si>
-    <t>Omega_RNdnrPO4_pre,Omega_RNdrPO4_pre</t>
-  </si>
-  <si>
-    <t>KspBasalt</t>
-  </si>
-  <si>
-    <t>Omega_RBasalt_dis</t>
-  </si>
-  <si>
-    <t>reaction rate</t>
-  </si>
-  <si>
-    <t>S_O2,S_TCO2,S_TNH4,S_TH3PO4,S_NO2,S_NO3,S_TMn,S_TFe,S_SO4,S_TH2S,S_CH4,S_Ca,S_TH4SiO4,S_Al,S_TNdnr,S_TNdr,S_TA,S_TA,S_TA,RMnOx_Ndnr,RMnOx_Ndr,RFeOx_Ndnr,RFeOx_Ndr,RIllite_pre,RBasalt_dis_Nd</t>
-  </si>
-  <si>
-    <t>S_TNH4,S_TA</t>
-  </si>
-  <si>
-    <t>S_TH3PO4,S_TA</t>
-  </si>
-  <si>
-    <t>pwtods</t>
-  </si>
-  <si>
-    <t>S_MnO2,S_FeOOH,S_FeS,S_SurfMn_Ndnr,S_SurfMn_Ndr,S_SurfFe_Ndnr,S_SurfFe_Ndr,S_NdnrPO4,S_NdrPO4,S_Illite</t>
-  </si>
-  <si>
-    <t>S_Al</t>
-  </si>
-  <si>
-    <t>S_TNdnr</t>
-  </si>
-  <si>
-    <t>S_TNdr</t>
-  </si>
-  <si>
-    <t>KO2</t>
-  </si>
-  <si>
-    <t>RO2POC,RNO2POC,RNO3POC,RMnO2POC,RFeOOHPOC,RSO4POC,RCH4POC</t>
-  </si>
-  <si>
-    <t>nu</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>KNO2</t>
-  </si>
-  <si>
-    <t>RNO2POC,RNO3POC,RMnO2POC,RFeOOHPOC,RSO4POC,RCH4POC</t>
-  </si>
-  <si>
-    <t>KNO3</t>
-  </si>
-  <si>
-    <t>RNO3POC,RMnO2POC,RFeOOHPOC,RSO4POC,RCH4POC</t>
-  </si>
-  <si>
-    <t>KMnO2</t>
-  </si>
-  <si>
-    <t>RMnO2POC,RFeOOHPOC,RSO4POC,RCH4POC</t>
-  </si>
-  <si>
-    <t>KFeOOH</t>
-  </si>
-  <si>
-    <t>RFeOOHPOC,RSO4POC,RCH4POC</t>
-  </si>
-  <si>
-    <t>KSO4</t>
-  </si>
-  <si>
-    <t>RSO4POC,RCH4POC</t>
-  </si>
-  <si>
-    <t>kO2NO2</t>
-  </si>
-  <si>
-    <t>kO2NH4</t>
-  </si>
-  <si>
-    <t>kO2Mn</t>
-  </si>
-  <si>
-    <t>kO2Mn_ads</t>
-  </si>
-  <si>
-    <t>kO2Fe</t>
-  </si>
-  <si>
-    <t>kO2Fe_ads</t>
-  </si>
-  <si>
-    <t>kO2H2S</t>
-  </si>
-  <si>
-    <t>kO2FeS</t>
-  </si>
-  <si>
-    <t>kO2CH4</t>
-  </si>
-  <si>
-    <t>kNO2NH4</t>
-  </si>
-  <si>
-    <t>kAOM</t>
-  </si>
-  <si>
-    <t>KAOM</t>
-  </si>
-  <si>
-    <t>kMnO2Fe</t>
-  </si>
-  <si>
-    <t>kMnO2H2S</t>
-  </si>
-  <si>
-    <t>kFeOOHH2S</t>
-  </si>
-  <si>
-    <t>kFeSH2S</t>
-  </si>
-  <si>
-    <t>kFeSdis</t>
-  </si>
-  <si>
-    <t>kFeSpre</t>
-  </si>
-  <si>
-    <t>kCaCO3dis0</t>
-  </si>
-  <si>
-    <t>kCaCO3dis1</t>
-  </si>
-  <si>
-    <t>nCaCO3dis</t>
-  </si>
-  <si>
-    <t>kBSi_dis</t>
-  </si>
-  <si>
-    <t>DNdMn</t>
-  </si>
-  <si>
-    <t>RMnOx_Ndnr,RMnOx_Ndr</t>
-  </si>
-  <si>
-    <t>DNdFe</t>
-  </si>
-  <si>
-    <t>RFeOx_Ndnr,RFeOx_Ndr</t>
-  </si>
-  <si>
-    <t>kNdPO4_pre</t>
-  </si>
-  <si>
-    <t>RNdnrPO4_pre,RNdrPO4_pre</t>
   </si>
   <si>
     <t>kIllite</t>
@@ -14624,10 +14621,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>579</v>
+      </c>
+      <c r="B15" t="s">
         <v>618</v>
-      </c>
-      <c r="B15" t="s">
-        <v>610</v>
       </c>
       <c r="C15" t="s">
         <v>619</v>
@@ -14635,32 +14632,32 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>579</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
+        <v>618</v>
+      </c>
+      <c r="C16" t="s">
         <v>620</v>
-      </c>
-      <c r="C16" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C17" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>622</v>
       </c>
       <c r="B18" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C18" t="s">
         <v>623</v>
@@ -14668,43 +14665,43 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" t="s">
+        <v>618</v>
+      </c>
+      <c r="C19" t="s">
         <v>624</v>
-      </c>
-      <c r="B19" t="s">
-        <v>620</v>
-      </c>
-      <c r="C19" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C20" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C21" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>152</v>
+        <v>627</v>
       </c>
       <c r="B22" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C22" t="s">
         <v>628</v>
@@ -14715,32 +14712,32 @@
         <v>629</v>
       </c>
       <c r="B23" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C23" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B24" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C24" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>631</v>
+      </c>
+      <c r="B25" t="s">
+        <v>618</v>
+      </c>
+      <c r="C25" t="s">
         <v>632</v>
-      </c>
-      <c r="B25" t="s">
-        <v>620</v>
-      </c>
-      <c r="C25" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -14748,7 +14745,7 @@
         <v>633</v>
       </c>
       <c r="B26" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C26" t="s">
         <v>634</v>
@@ -14759,7 +14756,7 @@
         <v>635</v>
       </c>
       <c r="B27" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C27" t="s">
         <v>636</v>
@@ -14770,7 +14767,7 @@
         <v>637</v>
       </c>
       <c r="B28" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C28" t="s">
         <v>638</v>
@@ -14781,7 +14778,7 @@
         <v>639</v>
       </c>
       <c r="B29" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C29" t="s">
         <v>640</v>
@@ -14792,128 +14789,128 @@
         <v>641</v>
       </c>
       <c r="B30" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C30" t="s">
-        <v>642</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B31" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B32" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B33" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B34" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B35" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B36" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B37" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B38" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B39" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B40" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B41" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C41" t="s">
         <v>91</v>
@@ -14921,87 +14918,87 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B42" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B43" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B44" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B45" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C45" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B46" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B47" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B48" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B49" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C49" t="s">
         <v>100</v>
@@ -15009,10 +15006,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B50" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C50" t="s">
         <v>100</v>
@@ -15020,24 +15017,24 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B51" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C51" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>663</v>
+      </c>
+      <c r="B52" t="s">
+        <v>618</v>
+      </c>
+      <c r="C52" t="s">
         <v>664</v>
-      </c>
-      <c r="B52" t="s">
-        <v>620</v>
-      </c>
-      <c r="C52" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -15045,7 +15042,7 @@
         <v>665</v>
       </c>
       <c r="B53" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C53" t="s">
         <v>666</v>
@@ -15056,7 +15053,7 @@
         <v>667</v>
       </c>
       <c r="B54" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C54" t="s">
         <v>668</v>
@@ -15067,18 +15064,18 @@
         <v>669</v>
       </c>
       <c r="B55" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C55" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B56" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C56" t="s">
         <v>137</v>
@@ -15086,10 +15083,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B57" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C57" t="s">
         <v>137</v>
@@ -15097,10 +15094,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B58" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C58" t="s">
         <v>144</v>
@@ -15108,10 +15105,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B59" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C59" t="s">
         <v>144</v>

--- a/examples/OregonNd/model_parsing_diagnostics.OregonNd.xlsx
+++ b/examples/OregonNd/model_parsing_diagnostics.OregonNd.xlsx
@@ -1047,7 +1047,13 @@
     <t>dependence</t>
   </si>
   <si>
-    <t>H,TCO2,TH2S,TH4SiO4,TH3PO4,TMn,FeOOH,MnO2,TFe,Al,TNdnr,TNdr,SO4,TNH4,Ca,O2,Age,POC,NO2,NO3,FeS,CH4,CaCO3,BSi,NdnrPO4,NdrPO4,Illite,Basalt</t>
+    <t>H,TCO2,TH4SiO4,TH3PO4,Al,TMn,FeOOH,MnO2,TFe,TNdnr,SO4,NO3,NO2,O2,Age,POC,TH2S,Basalt,SurfMn_Ndnr,SurfFe_Ndnr,NdnrPO4,NdrPO4</t>
+  </si>
+  <si>
+    <t>H,TCO2,TH4SiO4,TH3PO4,Al,TMn,FeOOH,MnO2,TFe,TNdr,SO4,NO3,NO2,O2,Age,POC,TH2S,Basalt,SurfMn_Ndr,SurfFe_Ndr,NdrPO4,NdnrPO4</t>
+  </si>
+  <si>
+    <t>H,TCO2,TH2S,TH4SiO4,TH3PO4,TFe,FeOOH,MnO2,SO4,Al,TNH4,TMn,TNdnr,TNdr,Ca,O2,Age,POC,NO2,NO3,FeS,CH4,CaCO3,BSi,NdnrPO4,NdrPO4,Illite,Basalt</t>
   </si>
   <si>
     <t>H,TCO2,TH2S,TFe,FeOOH,MnO2,SO4,O2,FeS</t>
@@ -1059,30 +1065,24 @@
     <t>H,TCO2,TH2S,TFe,FeOOH,MnO2,SO4,NO3,NO2,O2,Age,POC,CH4,FeS</t>
   </si>
   <si>
-    <t>H,TCO2,TH4SiO4,TH3PO4,TMn,FeOOH,MnO2,TFe,Al,TNdnr,SO4,NO3,NO2,O2,Age,POC,TH2S,Basalt,SurfMn_Ndnr,SurfFe_Ndnr,NdnrPO4,NdrPO4</t>
-  </si>
-  <si>
-    <t>H,TCO2,TH4SiO4,TH3PO4,TMn,FeOOH,MnO2,TFe,Al,TNdr,SO4,NO3,NO2,O2,Age,POC,TH2S,Basalt,SurfMn_Ndr,SurfFe_Ndr,NdrPO4,NdnrPO4</t>
-  </si>
-  <si>
     <t>H,TH4SiO4,Al,Basalt</t>
   </si>
   <si>
     <t>H,TH4SiO4,Al,BSi,Illite,Basalt</t>
   </si>
   <si>
+    <t>H,TCO2,TH4SiO4,TH3PO4,TNdnr,FeOOH,MnO2,SO4,TNdr,O2,Age,POC,NO2,NO3,NdnrPO4,NdrPO4</t>
+  </si>
+  <si>
+    <t>H,TCO2,TH4SiO4,TH3PO4,TNdnr,FeOOH,MnO2,SO4,NdnrPO4,NdrPO4</t>
+  </si>
+  <si>
+    <t>H,TCO2,TH4SiO4,TH3PO4,TNdr,FeOOH,MnO2,SO4,NdrPO4,NdnrPO4</t>
+  </si>
+  <si>
     <t>H,TH4SiO4,Al,Illite</t>
   </si>
   <si>
-    <t>H,TCO2,TH4SiO4,TH3PO4,TNdnr,FeOOH,MnO2,TNdr,SO4,O2,Age,POC,NO2,NO3,NdnrPO4,NdrPO4</t>
-  </si>
-  <si>
-    <t>H,TCO2,TH4SiO4,TH3PO4,TNdnr,FeOOH,MnO2,SO4,NdnrPO4,NdrPO4</t>
-  </si>
-  <si>
-    <t>H,TCO2,TH4SiO4,TH3PO4,TNdr,FeOOH,MnO2,SO4,NdrPO4,NdnrPO4</t>
-  </si>
-  <si>
     <t>TCO2,H,Ca,CaCO3</t>
   </si>
   <si>
@@ -1095,27 +1095,27 @@
     <t>TMn,FeOOH,MnO2,TFe,TNdr,NO3,NO2,O2,Age,POC,TH2S,SurfMn_Ndr</t>
   </si>
   <si>
-    <t>TMn,FeOOH,MnO2,TFe,TNH4,O2,Age,POC,NO2,TH2S,FeS,CH4</t>
+    <t>TFe,FeOOH,MnO2,TNdnr,NO3,NO2,O2,Age,POC,TH2S,SurfFe_Ndnr</t>
+  </si>
+  <si>
+    <t>TFe,FeOOH,MnO2,TNdr,NO3,NO2,O2,Age,POC,TH2S,SurfFe_Ndr</t>
+  </si>
+  <si>
+    <t>TNH4,TMn,FeOOH,MnO2,TFe,O2,Age,POC,NO2,TH2S,FeS,CH4</t>
+  </si>
+  <si>
+    <t>TNH4,O2,Age,POC,NO2,NO3,MnO2,FeOOH,SO4</t>
+  </si>
+  <si>
+    <t>TNH4,NO2,O2,Age,POC,NO3</t>
   </si>
   <si>
     <t>TMn,FeOOH,MnO2,TFe,NO3,NO2,O2,Age,POC,TH2S</t>
   </si>
   <si>
-    <t>TFe,FeOOH,MnO2,TNdnr,NO3,NO2,O2,Age,POC,TH2S,SurfFe_Ndnr</t>
-  </si>
-  <si>
-    <t>TFe,FeOOH,MnO2,TNdr,NO3,NO2,O2,Age,POC,TH2S,SurfFe_Ndr</t>
-  </si>
-  <si>
     <t>TFe,FeOOH,MnO2,NO3,NO2,O2,Age,POC,FeS,TH2S</t>
   </si>
   <si>
-    <t>TNH4,O2,Age,POC,NO2,NO3,MnO2,FeOOH,SO4</t>
-  </si>
-  <si>
-    <t>TNH4,NO2,O2,Age,POC,NO3</t>
-  </si>
-  <si>
     <t>TH4SiO4,BSi</t>
   </si>
   <si>
@@ -1194,30 +1194,30 @@
     <t>NO3ID</t>
   </si>
   <si>
+    <t>CH4ID</t>
+  </si>
+  <si>
+    <t>NO2ID</t>
+  </si>
+  <si>
+    <t>CaID</t>
+  </si>
+  <si>
+    <t>SO4ID</t>
+  </si>
+  <si>
     <t>TMnID</t>
   </si>
   <si>
     <t>TFeID</t>
   </si>
   <si>
-    <t>CH4ID</t>
-  </si>
-  <si>
-    <t>NO2ID</t>
-  </si>
-  <si>
-    <t>CaID</t>
-  </si>
-  <si>
     <t>AlID</t>
   </si>
   <si>
     <t>TNH4ID</t>
   </si>
   <si>
-    <t>SO4ID</t>
-  </si>
-  <si>
     <t>TNdnrID</t>
   </si>
   <si>
@@ -1827,7 +1827,7 @@
     <t>Cl</t>
   </si>
   <si>
-    <t>Mn_aq,Mn_OH_aq,Mn_OH_2_aq,MnHCO3_aq,MnCO3_aq,MnSO4_aq,MnCl_aq,Fe_aq,Fe_OH_aq,Fe_OH_2_aq,FeHCO3_aq,FeCO3_aq,Fe_CO3_2_aq,FeSO4_aq,FeCl_aq,FeS_aq,Ndnr_aq,NdnrCO3_aq,Ndnr_CO3_2_aq,NdnrHCO3_aq,NdnrCl_aq,NdnrSO4_aq,NdnrOH_aq,NdnrH3SiO4_aq,Ndnr_H3SiO4_2_aq,Ndr_aq,NdrCO3_aq,Ndr_CO3_2_aq,NdrHCO3_aq,NdrCl_aq,NdrSO4_aq,NdrOH_aq,NdrH3SiO4_aq,Ndr_H3SiO4_2_aq</t>
+    <t>Mn_aq,Fe_aq,Ndnr_aq,Ndr_aq</t>
   </si>
   <si>
     <t>KFe_ads_Fe</t>
@@ -2621,7 +2621,7 @@
         <v>36</v>
       </c>
       <c r="J6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K6" t="s">
         <v>21</v>
@@ -2729,7 +2729,7 @@
         <v>21</v>
       </c>
       <c r="J9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
         <v>21</v>
@@ -2839,7 +2839,7 @@
         <v>36</v>
       </c>
       <c r="J12">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K12" t="s">
         <v>21</v>
@@ -3057,7 +3057,7 @@
         <v>36</v>
       </c>
       <c r="J18">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K18" t="s">
         <v>21</v>
@@ -3129,7 +3129,7 @@
         <v>21</v>
       </c>
       <c r="J20">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K20" t="s">
         <v>21</v>
@@ -3311,7 +3311,7 @@
         <v>36</v>
       </c>
       <c r="J25">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K25" t="s">
         <v>21</v>
@@ -3383,7 +3383,7 @@
         <v>36</v>
       </c>
       <c r="J27">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K27" t="s">
         <v>21</v>
@@ -3565,7 +3565,7 @@
         <v>36</v>
       </c>
       <c r="J32">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K32" t="s">
         <v>21</v>
@@ -3637,7 +3637,7 @@
         <v>36</v>
       </c>
       <c r="J34">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K34" t="s">
         <v>21</v>
@@ -3709,7 +3709,7 @@
         <v>21</v>
       </c>
       <c r="J36">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K36" t="s">
         <v>21</v>
@@ -3819,7 +3819,7 @@
         <v>36</v>
       </c>
       <c r="J39">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K39" t="s">
         <v>21</v>
@@ -4035,7 +4035,7 @@
         <v>21</v>
       </c>
       <c r="J45">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K45" t="s">
         <v>21</v>
@@ -4073,7 +4073,7 @@
         <v>36</v>
       </c>
       <c r="J46">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K46" t="s">
         <v>21</v>
@@ -4181,7 +4181,7 @@
         <v>21</v>
       </c>
       <c r="J49">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K49" t="s">
         <v>21</v>
@@ -4291,7 +4291,7 @@
         <v>36</v>
       </c>
       <c r="J52">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K52" t="s">
         <v>21</v>
@@ -4327,7 +4327,7 @@
         <v>21</v>
       </c>
       <c r="J53">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K53" t="s">
         <v>21</v>
@@ -4435,7 +4435,7 @@
         <v>36</v>
       </c>
       <c r="J56">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K56" t="s">
         <v>21</v>
@@ -4579,7 +4579,7 @@
         <v>36</v>
       </c>
       <c r="J60">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K60" t="s">
         <v>80</v>
@@ -4723,7 +4723,7 @@
         <v>36</v>
       </c>
       <c r="J64">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K64" t="s">
         <v>21</v>
@@ -4867,7 +4867,7 @@
         <v>36</v>
       </c>
       <c r="J68">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K68" t="s">
         <v>80</v>
@@ -5047,7 +5047,7 @@
         <v>21</v>
       </c>
       <c r="J73">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K73" t="s">
         <v>21</v>
@@ -5227,7 +5227,7 @@
         <v>21</v>
       </c>
       <c r="J78">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K78" t="s">
         <v>21</v>
@@ -5335,7 +5335,7 @@
         <v>21</v>
       </c>
       <c r="J81">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K81" t="s">
         <v>21</v>
@@ -5407,7 +5407,7 @@
         <v>21</v>
       </c>
       <c r="J83">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K83" t="s">
         <v>21</v>
@@ -5445,7 +5445,7 @@
         <v>36</v>
       </c>
       <c r="J84">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K84" t="s">
         <v>21</v>
@@ -5481,7 +5481,7 @@
         <v>21</v>
       </c>
       <c r="J85">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K85" t="s">
         <v>21</v>
@@ -5517,7 +5517,7 @@
         <v>21</v>
       </c>
       <c r="J86">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K86" t="s">
         <v>21</v>
@@ -5697,7 +5697,7 @@
         <v>36</v>
       </c>
       <c r="J91">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K91" t="s">
         <v>21</v>
@@ -5733,7 +5733,7 @@
         <v>36</v>
       </c>
       <c r="J92">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K92" t="s">
         <v>21</v>
@@ -5949,7 +5949,7 @@
         <v>36</v>
       </c>
       <c r="J98">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K98" t="s">
         <v>21</v>
@@ -6093,7 +6093,7 @@
         <v>36</v>
       </c>
       <c r="J102">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K102" t="s">
         <v>21</v>
@@ -6309,7 +6309,7 @@
         <v>36</v>
       </c>
       <c r="J108">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K108" t="s">
         <v>21</v>
@@ -6381,7 +6381,7 @@
         <v>36</v>
       </c>
       <c r="J110">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K110" t="s">
         <v>21</v>
@@ -6561,7 +6561,7 @@
         <v>21</v>
       </c>
       <c r="J115">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K115" t="s">
         <v>21</v>
@@ -6705,7 +6705,7 @@
         <v>36</v>
       </c>
       <c r="J119">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K119" t="s">
         <v>21</v>
@@ -7533,7 +7533,7 @@
         <v>36</v>
       </c>
       <c r="J142">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K142" t="s">
         <v>21</v>
@@ -7785,7 +7785,7 @@
         <v>36</v>
       </c>
       <c r="J149">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K149" t="s">
         <v>21</v>
@@ -12441,7 +12441,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
         <v>338</v>
@@ -12449,7 +12449,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
         <v>339</v>
@@ -12457,7 +12457,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>340</v>
@@ -12465,7 +12465,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
         <v>341</v>
@@ -12473,7 +12473,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
         <v>342</v>
@@ -12481,7 +12481,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
         <v>343</v>
@@ -12513,7 +12513,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
         <v>346</v>
@@ -12521,7 +12521,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s">
         <v>347</v>
@@ -12529,7 +12529,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
         <v>348</v>
@@ -12537,7 +12537,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B14" t="s">
         <v>349</v>
@@ -12585,7 +12585,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s">
         <v>354</v>
@@ -12593,7 +12593,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s">
         <v>355</v>
@@ -12601,39 +12601,39 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
         <v>359</v>
@@ -12641,7 +12641,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
         <v>360</v>
